--- a/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_hamedan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_hamedan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -266,12 +266,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -605,13 +605,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -688,7 +688,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -768,7 +768,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -848,7 +848,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -925,7 +925,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10573,7 +10573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10857,7 +10857,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12803,8 +12803,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>34</v>
+      </c>
+      <c r="G161">
+        <v>24</v>
+      </c>
+      <c r="H161">
+        <v>14</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>-2</v>
+      </c>
+      <c r="K161">
+        <v>-4</v>
+      </c>
+      <c r="L161">
+        <v>36</v>
+      </c>
+      <c r="M161">
+        <v>19</v>
+      </c>
+      <c r="N161">
+        <v>10</v>
+      </c>
+      <c r="O161">
+        <v>1025</v>
+      </c>
+      <c r="P161">
+        <v>1024</v>
+      </c>
+      <c r="Q161">
+        <v>1022</v>
+      </c>
+      <c r="R161">
+        <v>10</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>10</v>
+      </c>
+      <c r="U161">
+        <v>26</v>
+      </c>
+      <c r="V161">
+        <v>6</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12820,8 +12880,68 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>35</v>
+      </c>
+      <c r="G162">
+        <v>23</v>
+      </c>
+      <c r="H162">
+        <v>11</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>-2</v>
+      </c>
+      <c r="K162">
+        <v>-5</v>
+      </c>
+      <c r="L162">
+        <v>38</v>
+      </c>
+      <c r="M162">
+        <v>18</v>
+      </c>
+      <c r="N162">
+        <v>9</v>
+      </c>
+      <c r="O162">
+        <v>1025</v>
+      </c>
+      <c r="P162">
+        <v>1023</v>
+      </c>
+      <c r="Q162">
+        <v>1021</v>
+      </c>
+      <c r="R162">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <v>10</v>
+      </c>
+      <c r="T162">
+        <v>10</v>
+      </c>
+      <c r="U162">
+        <v>19</v>
+      </c>
+      <c r="V162">
+        <v>8</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12837,8 +12957,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>35</v>
+      </c>
+      <c r="G163">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>15</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>-1</v>
+      </c>
+      <c r="L163">
+        <v>42</v>
+      </c>
+      <c r="M163">
+        <v>20</v>
+      </c>
+      <c r="N163">
+        <v>10</v>
+      </c>
+      <c r="O163">
+        <v>1023</v>
+      </c>
+      <c r="P163">
+        <v>1022</v>
+      </c>
+      <c r="Q163">
+        <v>1020</v>
+      </c>
+      <c r="R163">
+        <v>10</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>10</v>
+      </c>
+      <c r="U163">
+        <v>14</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>2</v>
+      </c>
+      <c r="AA163">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -12854,8 +13034,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>35</v>
+      </c>
+      <c r="G164">
+        <v>27</v>
+      </c>
+      <c r="H164">
+        <v>19</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>-1</v>
+      </c>
+      <c r="L164">
+        <v>33</v>
+      </c>
+      <c r="M164">
+        <v>20</v>
+      </c>
+      <c r="N164">
+        <v>10</v>
+      </c>
+      <c r="O164">
+        <v>1022</v>
+      </c>
+      <c r="P164">
+        <v>1021</v>
+      </c>
+      <c r="Q164">
+        <v>1019</v>
+      </c>
+      <c r="R164">
+        <v>10</v>
+      </c>
+      <c r="S164">
+        <v>10</v>
+      </c>
+      <c r="T164">
+        <v>10</v>
+      </c>
+      <c r="U164">
+        <v>26</v>
+      </c>
+      <c r="V164">
+        <v>6</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>3</v>
+      </c>
+      <c r="AA164">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -12871,8 +13111,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>35</v>
+      </c>
+      <c r="G165">
+        <v>28</v>
+      </c>
+      <c r="H165">
+        <v>20</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+      <c r="J165">
+        <v>3</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>33</v>
+      </c>
+      <c r="M165">
+        <v>21</v>
+      </c>
+      <c r="N165">
+        <v>12</v>
+      </c>
+      <c r="O165">
+        <v>1021</v>
+      </c>
+      <c r="P165">
+        <v>1019</v>
+      </c>
+      <c r="Q165">
+        <v>1017</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>10</v>
+      </c>
+      <c r="U165">
+        <v>26</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="AA165">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -12888,8 +13188,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>34</v>
+      </c>
+      <c r="G166">
+        <v>27</v>
+      </c>
+      <c r="H166">
+        <v>20</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>-3</v>
+      </c>
+      <c r="L166">
+        <v>35</v>
+      </c>
+      <c r="M166">
+        <v>20</v>
+      </c>
+      <c r="N166">
+        <v>9</v>
+      </c>
+      <c r="O166">
+        <v>1018</v>
+      </c>
+      <c r="P166">
+        <v>1017</v>
+      </c>
+      <c r="Q166">
+        <v>1015</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>10</v>
+      </c>
+      <c r="T166">
+        <v>10</v>
+      </c>
+      <c r="U166">
+        <v>26</v>
+      </c>
+      <c r="V166">
+        <v>10</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>3</v>
+      </c>
+      <c r="AA166">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -12905,8 +13265,68 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>32</v>
+      </c>
+      <c r="G167">
+        <v>23</v>
+      </c>
+      <c r="H167">
+        <v>14</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <v>-1</v>
+      </c>
+      <c r="K167">
+        <v>-5</v>
+      </c>
+      <c r="L167">
+        <v>48</v>
+      </c>
+      <c r="M167">
+        <v>21</v>
+      </c>
+      <c r="N167">
+        <v>11</v>
+      </c>
+      <c r="O167">
+        <v>1018</v>
+      </c>
+      <c r="P167">
+        <v>1016</v>
+      </c>
+      <c r="Q167">
+        <v>1015</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>10</v>
+      </c>
+      <c r="T167">
+        <v>10</v>
+      </c>
+      <c r="U167">
+        <v>29</v>
+      </c>
+      <c r="V167">
+        <v>11</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>3</v>
+      </c>
+      <c r="AA167">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -12922,8 +13342,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>32</v>
+      </c>
+      <c r="G168">
+        <v>22</v>
+      </c>
+      <c r="H168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -12939,8 +13368,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>33</v>
+      </c>
+      <c r="G169">
+        <v>23</v>
+      </c>
+      <c r="H169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -12956,8 +13394,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>33</v>
+      </c>
+      <c r="G170">
+        <v>22</v>
+      </c>
+      <c r="H170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -12973,8 +13420,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>33</v>
+      </c>
+      <c r="G171">
+        <v>22</v>
+      </c>
+      <c r="H171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -12990,8 +13446,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>31</v>
+      </c>
+      <c r="G172">
+        <v>21</v>
+      </c>
+      <c r="H172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13008,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13025,7 +13490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13042,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13059,7 +13524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13076,7 +13541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13093,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13110,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13127,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13144,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13161,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13178,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13195,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13212,7 +13677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13229,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13246,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13263,7 +13728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13280,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13297,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13314,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13331,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13348,7 +13813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13365,7 +13830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13382,7 +13847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13399,7 +13864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13416,7 +13881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13433,7 +13898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13450,7 +13915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13467,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13484,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13501,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13518,7 +13983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13535,7 +14000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13552,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13569,7 +14034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13586,7 +14051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13603,7 +14068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13620,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13637,7 +14102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13654,7 +14119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13671,7 +14136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13688,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13705,7 +14170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13722,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13739,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13756,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13773,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13790,7 +14255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13807,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13824,7 +14289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13841,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -13858,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -13875,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -13892,7 +14357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -13909,7 +14374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -13926,7 +14391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -13943,7 +14408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -13960,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -13977,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -13994,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14011,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14028,7 +14493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14045,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14062,7 +14527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14079,7 +14544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14096,7 +14561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14113,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14130,7 +14595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14147,7 +14612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14164,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14181,7 +14646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14198,7 +14663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14215,7 +14680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14232,7 +14697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14249,7 +14714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14266,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14283,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14300,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14317,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14334,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14351,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14368,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14385,7 +14850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14402,7 +14867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14419,7 +14884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14436,7 +14901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14453,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14470,7 +14935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14487,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14504,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14521,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14538,7 +15003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14555,7 +15020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14572,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14589,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14606,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14623,7 +15088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14640,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14657,7 +15122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14674,7 +15139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14691,7 +15156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14708,7 +15173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14725,7 +15190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14742,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14759,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14776,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14793,7 +15258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14810,7 +15275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14827,7 +15292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14844,7 +15309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -14861,7 +15326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -14878,7 +15343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -14895,7 +15360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -14912,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -14929,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -14946,7 +15411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -14963,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -14980,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -14997,7 +15462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15014,7 +15479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15031,7 +15496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15048,7 +15513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15065,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15082,7 +15547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15099,7 +15564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15116,7 +15581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15133,7 +15598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15150,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15167,7 +15632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15184,7 +15649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15201,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15218,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15235,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15252,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15269,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15286,7 +15751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15303,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15320,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15337,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15354,7 +15819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15371,7 +15836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15388,7 +15853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15405,7 +15870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15422,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15439,7 +15904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15456,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15473,7 +15938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15490,7 +15955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15507,7 +15972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15524,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15541,7 +16006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15558,7 +16023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15575,7 +16040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15592,7 +16057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15609,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15626,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15643,7 +16108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15660,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15677,7 +16142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15694,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15711,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15728,7 +16193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15745,7 +16210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15762,7 +16227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15779,7 +16244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15796,7 +16261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15813,7 +16278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15830,7 +16295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -15847,7 +16312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -15864,7 +16329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -15881,7 +16346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -15898,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -15915,7 +16380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -15932,7 +16397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -15949,7 +16414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -15966,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -15983,7 +16448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16000,7 +16465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16017,7 +16482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16034,7 +16499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16051,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16068,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16085,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16102,7 +16567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16119,7 +16584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16136,7 +16601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16153,7 +16618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16170,7 +16635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16187,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16204,7 +16669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16221,7 +16686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16238,7 +16703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16255,7 +16720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16272,7 +16737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16300,7 +16765,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16312,7 +16777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan95.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_hamedan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\temporary\New Folder\Works2\WeatherData\T_hamedan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="167">
   <si>
     <t>Rain</t>
   </si>
@@ -262,12 +262,273 @@
   <si>
     <t>354&lt;br /&gt;</t>
   </si>
+  <si>
+    <t>303&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>268&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>315&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>269&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>317&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>147&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>320&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>211&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>236&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>286&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>81&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>90&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>15&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>12&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>24&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>64&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>4&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>42&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>85&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>349&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>264&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>307&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>321&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>258&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>327&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>347&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>350&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>298&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>232&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>243&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>237&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>261&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>240&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>229&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>225&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>181&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>300&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>335&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>291&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>3&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>338&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>277&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>137&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>228&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>247&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>180&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>72&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>56&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>340&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>-1&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>70&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>110&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>199&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>195&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>198&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>193&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>212&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>28&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>25&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>234&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>14&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>299&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>57&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>213&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>1&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>27&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>65&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>22&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>230&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>134&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>227&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>332&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>76&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>31&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>231&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>206&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>37&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>53&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>346&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>343&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>38&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>359&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>280&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>214&lt;br /&gt;</t>
+  </si>
+  <si>
+    <t>94&lt;br /&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +536,11 @@
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,14 +560,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,11 +874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="F260" sqref="F260:AA308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1">
@@ -13351,6 +13620,57 @@
       <c r="H168">
         <v>12</v>
       </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>-1</v>
+      </c>
+      <c r="K168">
+        <v>-5</v>
+      </c>
+      <c r="L168">
+        <v>38</v>
+      </c>
+      <c r="M168">
+        <v>22</v>
+      </c>
+      <c r="N168">
+        <v>12</v>
+      </c>
+      <c r="O168">
+        <v>1019</v>
+      </c>
+      <c r="P168">
+        <v>1018</v>
+      </c>
+      <c r="Q168">
+        <v>1017</v>
+      </c>
+      <c r="R168">
+        <v>10</v>
+      </c>
+      <c r="S168">
+        <v>10</v>
+      </c>
+      <c r="T168">
+        <v>10</v>
+      </c>
+      <c r="U168">
+        <v>32</v>
+      </c>
+      <c r="V168">
+        <v>11</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>1</v>
+      </c>
+      <c r="AA168">
+        <v>286</v>
+      </c>
     </row>
     <row r="169" spans="1:27">
       <c r="A169">
@@ -13377,6 +13697,57 @@
       <c r="H169">
         <v>13</v>
       </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>-2</v>
+      </c>
+      <c r="L169">
+        <v>39</v>
+      </c>
+      <c r="M169">
+        <v>23</v>
+      </c>
+      <c r="N169">
+        <v>13</v>
+      </c>
+      <c r="O169">
+        <v>1022</v>
+      </c>
+      <c r="P169">
+        <v>1020</v>
+      </c>
+      <c r="Q169">
+        <v>1019</v>
+      </c>
+      <c r="R169">
+        <v>10</v>
+      </c>
+      <c r="S169">
+        <v>10</v>
+      </c>
+      <c r="T169">
+        <v>10</v>
+      </c>
+      <c r="U169">
+        <v>32</v>
+      </c>
+      <c r="V169">
+        <v>11</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>273</v>
+      </c>
     </row>
     <row r="170" spans="1:27">
       <c r="A170">
@@ -13395,13 +13766,52 @@
         <v>1</v>
       </c>
       <c r="F170">
+        <v>32</v>
+      </c>
+      <c r="G170">
+        <v>23</v>
+      </c>
+      <c r="H170">
+        <v>14</v>
+      </c>
+      <c r="I170">
+        <v>-1</v>
+      </c>
+      <c r="J170">
+        <v>-6</v>
+      </c>
+      <c r="K170">
+        <v>-17</v>
+      </c>
+      <c r="L170">
         <v>33</v>
       </c>
-      <c r="G170">
-        <v>22</v>
-      </c>
-      <c r="H170">
-        <v>12</v>
+      <c r="M170">
+        <v>17</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
+      </c>
+      <c r="O170">
+        <v>1023</v>
+      </c>
+      <c r="P170">
+        <v>1021</v>
+      </c>
+      <c r="Q170">
+        <v>1019</v>
+      </c>
+      <c r="U170">
+        <v>23</v>
+      </c>
+      <c r="V170">
+        <v>6</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>307</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -13421,13 +13831,52 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G171">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H171">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="I171">
+        <v>-4</v>
+      </c>
+      <c r="J171">
+        <v>-8</v>
+      </c>
+      <c r="K171">
+        <v>-13</v>
+      </c>
+      <c r="L171">
+        <v>34</v>
+      </c>
+      <c r="M171">
+        <v>16</v>
+      </c>
+      <c r="N171">
+        <v>5</v>
+      </c>
+      <c r="O171">
+        <v>1021</v>
+      </c>
+      <c r="P171">
+        <v>1020</v>
+      </c>
+      <c r="Q171">
+        <v>1017</v>
+      </c>
+      <c r="U171">
+        <v>23</v>
+      </c>
+      <c r="V171">
+        <v>10</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -13450,10 +13899,49 @@
         <v>31</v>
       </c>
       <c r="G172">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H172">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I172">
+        <v>5</v>
+      </c>
+      <c r="J172">
+        <v>-2</v>
+      </c>
+      <c r="K172">
+        <v>-7</v>
+      </c>
+      <c r="L172">
+        <v>40</v>
+      </c>
+      <c r="M172">
+        <v>23</v>
+      </c>
+      <c r="N172">
+        <v>10</v>
+      </c>
+      <c r="O172">
+        <v>1019</v>
+      </c>
+      <c r="P172">
+        <v>1016</v>
+      </c>
+      <c r="Q172">
+        <v>1014</v>
+      </c>
+      <c r="U172">
+        <v>19</v>
+      </c>
+      <c r="V172">
+        <v>10</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -13472,6 +13960,66 @@
       <c r="E173">
         <v>1</v>
       </c>
+      <c r="F173">
+        <v>28</v>
+      </c>
+      <c r="G173">
+        <v>19</v>
+      </c>
+      <c r="H173">
+        <v>10</v>
+      </c>
+      <c r="I173">
+        <v>6</v>
+      </c>
+      <c r="J173">
+        <v>5</v>
+      </c>
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <v>66</v>
+      </c>
+      <c r="M173">
+        <v>40</v>
+      </c>
+      <c r="N173">
+        <v>23</v>
+      </c>
+      <c r="O173">
+        <v>1019</v>
+      </c>
+      <c r="P173">
+        <v>1018</v>
+      </c>
+      <c r="Q173">
+        <v>1016</v>
+      </c>
+      <c r="R173">
+        <v>10</v>
+      </c>
+      <c r="S173">
+        <v>10</v>
+      </c>
+      <c r="T173">
+        <v>10</v>
+      </c>
+      <c r="U173">
+        <v>23</v>
+      </c>
+      <c r="V173">
+        <v>10</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>2</v>
+      </c>
+      <c r="AA173">
+        <v>349</v>
+      </c>
     </row>
     <row r="174" spans="1:27">
       <c r="A174">
@@ -13489,6 +14037,66 @@
       <c r="E174">
         <v>1</v>
       </c>
+      <c r="F174">
+        <v>30</v>
+      </c>
+      <c r="G174">
+        <v>21</v>
+      </c>
+      <c r="H174">
+        <v>12</v>
+      </c>
+      <c r="I174">
+        <v>8</v>
+      </c>
+      <c r="J174">
+        <v>3</v>
+      </c>
+      <c r="K174">
+        <v>-2</v>
+      </c>
+      <c r="L174">
+        <v>54</v>
+      </c>
+      <c r="M174">
+        <v>34</v>
+      </c>
+      <c r="N174">
+        <v>16</v>
+      </c>
+      <c r="O174">
+        <v>1020</v>
+      </c>
+      <c r="P174">
+        <v>1018</v>
+      </c>
+      <c r="Q174">
+        <v>1017</v>
+      </c>
+      <c r="R174">
+        <v>10</v>
+      </c>
+      <c r="S174">
+        <v>10</v>
+      </c>
+      <c r="T174">
+        <v>10</v>
+      </c>
+      <c r="U174">
+        <v>19</v>
+      </c>
+      <c r="V174">
+        <v>5</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>2</v>
+      </c>
+      <c r="AA174">
+        <v>337</v>
+      </c>
     </row>
     <row r="175" spans="1:27">
       <c r="A175">
@@ -13506,6 +14114,66 @@
       <c r="E175">
         <v>1</v>
       </c>
+      <c r="F175">
+        <v>31</v>
+      </c>
+      <c r="G175">
+        <v>21</v>
+      </c>
+      <c r="H175">
+        <v>11</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>-1</v>
+      </c>
+      <c r="K175">
+        <v>-5</v>
+      </c>
+      <c r="L175">
+        <v>54</v>
+      </c>
+      <c r="M175">
+        <v>25</v>
+      </c>
+      <c r="N175">
+        <v>10</v>
+      </c>
+      <c r="O175">
+        <v>1021</v>
+      </c>
+      <c r="P175">
+        <v>1020</v>
+      </c>
+      <c r="Q175">
+        <v>1018</v>
+      </c>
+      <c r="R175">
+        <v>10</v>
+      </c>
+      <c r="S175">
+        <v>10</v>
+      </c>
+      <c r="T175">
+        <v>10</v>
+      </c>
+      <c r="U175">
+        <v>14</v>
+      </c>
+      <c r="V175">
+        <v>6</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>1</v>
+      </c>
+      <c r="AA175">
+        <v>356</v>
+      </c>
     </row>
     <row r="176" spans="1:27">
       <c r="A176">
@@ -13523,8 +14191,68 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>31</v>
+      </c>
+      <c r="G176">
+        <v>21</v>
+      </c>
+      <c r="H176">
+        <v>11</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>-3</v>
+      </c>
+      <c r="K176">
+        <v>-7</v>
+      </c>
+      <c r="L176">
+        <v>38</v>
+      </c>
+      <c r="M176">
+        <v>21</v>
+      </c>
+      <c r="N176">
+        <v>8</v>
+      </c>
+      <c r="O176">
+        <v>1022</v>
+      </c>
+      <c r="P176">
+        <v>1020</v>
+      </c>
+      <c r="Q176">
+        <v>1017</v>
+      </c>
+      <c r="R176">
+        <v>10</v>
+      </c>
+      <c r="S176">
+        <v>10</v>
+      </c>
+      <c r="T176">
+        <v>10</v>
+      </c>
+      <c r="U176">
+        <v>19</v>
+      </c>
+      <c r="V176">
+        <v>8</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>1</v>
+      </c>
+      <c r="AA176">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13540,8 +14268,56 @@
       <c r="E177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>31</v>
+      </c>
+      <c r="G177">
+        <v>21</v>
+      </c>
+      <c r="H177">
+        <v>11</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>-5</v>
+      </c>
+      <c r="K177">
+        <v>-9</v>
+      </c>
+      <c r="L177">
+        <v>33</v>
+      </c>
+      <c r="M177">
+        <v>18</v>
+      </c>
+      <c r="N177">
+        <v>8</v>
+      </c>
+      <c r="O177">
+        <v>1020</v>
+      </c>
+      <c r="P177">
+        <v>1018</v>
+      </c>
+      <c r="Q177">
+        <v>1016</v>
+      </c>
+      <c r="U177">
+        <v>19</v>
+      </c>
+      <c r="V177">
+        <v>6</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13557,8 +14333,56 @@
       <c r="E178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>31</v>
+      </c>
+      <c r="G178">
+        <v>20</v>
+      </c>
+      <c r="H178">
+        <v>10</v>
+      </c>
+      <c r="I178">
+        <v>5</v>
+      </c>
+      <c r="J178">
+        <v>-4</v>
+      </c>
+      <c r="K178">
+        <v>-9</v>
+      </c>
+      <c r="L178">
+        <v>35</v>
+      </c>
+      <c r="M178">
+        <v>21</v>
+      </c>
+      <c r="N178">
+        <v>8</v>
+      </c>
+      <c r="O178">
+        <v>1020</v>
+      </c>
+      <c r="P178">
+        <v>1019</v>
+      </c>
+      <c r="Q178">
+        <v>1017</v>
+      </c>
+      <c r="U178">
+        <v>14</v>
+      </c>
+      <c r="V178">
+        <v>6</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13574,8 +14398,56 @@
       <c r="E179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179">
+        <v>19</v>
+      </c>
+      <c r="H179">
+        <v>8</v>
+      </c>
+      <c r="I179">
+        <v>-1</v>
+      </c>
+      <c r="J179">
+        <v>-4</v>
+      </c>
+      <c r="K179">
+        <v>-8</v>
+      </c>
+      <c r="L179">
+        <v>43</v>
+      </c>
+      <c r="M179">
+        <v>21</v>
+      </c>
+      <c r="N179">
+        <v>10</v>
+      </c>
+      <c r="O179">
+        <v>1020</v>
+      </c>
+      <c r="P179">
+        <v>1019</v>
+      </c>
+      <c r="Q179">
+        <v>1018</v>
+      </c>
+      <c r="U179">
+        <v>29</v>
+      </c>
+      <c r="V179">
+        <v>8</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13591,8 +14463,68 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>30</v>
+      </c>
+      <c r="G180">
+        <v>21</v>
+      </c>
+      <c r="H180">
+        <v>12</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>-2</v>
+      </c>
+      <c r="K180">
+        <v>-3</v>
+      </c>
+      <c r="L180">
+        <v>41</v>
+      </c>
+      <c r="M180">
+        <v>22</v>
+      </c>
+      <c r="N180">
+        <v>12</v>
+      </c>
+      <c r="O180">
+        <v>1020</v>
+      </c>
+      <c r="P180">
+        <v>1019</v>
+      </c>
+      <c r="Q180">
+        <v>1017</v>
+      </c>
+      <c r="R180">
+        <v>10</v>
+      </c>
+      <c r="S180">
+        <v>9</v>
+      </c>
+      <c r="T180">
+        <v>8</v>
+      </c>
+      <c r="U180">
+        <v>42</v>
+      </c>
+      <c r="V180">
+        <v>14</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>1</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13608,8 +14540,68 @@
       <c r="E181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>30</v>
+      </c>
+      <c r="G181">
+        <v>21</v>
+      </c>
+      <c r="H181">
+        <v>13</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>-2</v>
+      </c>
+      <c r="K181">
+        <v>-4</v>
+      </c>
+      <c r="L181">
+        <v>33</v>
+      </c>
+      <c r="M181">
+        <v>22</v>
+      </c>
+      <c r="N181">
+        <v>13</v>
+      </c>
+      <c r="O181">
+        <v>1021</v>
+      </c>
+      <c r="P181">
+        <v>1019</v>
+      </c>
+      <c r="Q181">
+        <v>1018</v>
+      </c>
+      <c r="R181">
+        <v>10</v>
+      </c>
+      <c r="S181">
+        <v>10</v>
+      </c>
+      <c r="T181">
+        <v>10</v>
+      </c>
+      <c r="U181">
+        <v>26</v>
+      </c>
+      <c r="V181">
+        <v>11</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>2</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13625,8 +14617,70 @@
       <c r="E182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" s="1">
+        <v>30</v>
+      </c>
+      <c r="G182" s="1">
+        <v>21</v>
+      </c>
+      <c r="H182" s="1">
+        <v>13</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J182" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K182" s="1">
+        <v>-4</v>
+      </c>
+      <c r="L182" s="1">
+        <v>33</v>
+      </c>
+      <c r="M182" s="1">
+        <v>22</v>
+      </c>
+      <c r="N182" s="1">
+        <v>13</v>
+      </c>
+      <c r="O182" s="1">
+        <v>1021</v>
+      </c>
+      <c r="P182" s="1">
+        <v>1019</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>1018</v>
+      </c>
+      <c r="R182" s="1">
+        <v>10</v>
+      </c>
+      <c r="S182" s="1">
+        <v>10</v>
+      </c>
+      <c r="T182" s="1">
+        <v>10</v>
+      </c>
+      <c r="U182" s="1">
+        <v>26</v>
+      </c>
+      <c r="V182" s="1">
+        <v>11</v>
+      </c>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z182" s="1"/>
+      <c r="AA182" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13642,8 +14696,56 @@
       <c r="E183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>27</v>
+      </c>
+      <c r="G183">
+        <v>18</v>
+      </c>
+      <c r="H183">
+        <v>10</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>-3</v>
+      </c>
+      <c r="K183">
+        <v>-8</v>
+      </c>
+      <c r="L183">
+        <v>47</v>
+      </c>
+      <c r="M183">
+        <v>25</v>
+      </c>
+      <c r="N183">
+        <v>10</v>
+      </c>
+      <c r="O183">
+        <v>1019</v>
+      </c>
+      <c r="P183">
+        <v>1018</v>
+      </c>
+      <c r="Q183">
+        <v>1017</v>
+      </c>
+      <c r="U183">
+        <v>23</v>
+      </c>
+      <c r="V183">
+        <v>11</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13659,8 +14761,56 @@
       <c r="E184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>28</v>
+      </c>
+      <c r="G184">
+        <v>17</v>
+      </c>
+      <c r="H184">
+        <v>7</v>
+      </c>
+      <c r="I184">
+        <v>-2</v>
+      </c>
+      <c r="J184">
+        <v>-5</v>
+      </c>
+      <c r="K184">
+        <v>-8</v>
+      </c>
+      <c r="L184">
+        <v>46</v>
+      </c>
+      <c r="M184">
+        <v>24</v>
+      </c>
+      <c r="N184">
+        <v>10</v>
+      </c>
+      <c r="O184">
+        <v>1019</v>
+      </c>
+      <c r="P184">
+        <v>1017</v>
+      </c>
+      <c r="Q184">
+        <v>1016</v>
+      </c>
+      <c r="U184">
+        <v>19</v>
+      </c>
+      <c r="V184">
+        <v>5</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13676,8 +14826,56 @@
       <c r="E185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>29</v>
+      </c>
+      <c r="G185">
+        <v>19</v>
+      </c>
+      <c r="H185">
+        <v>9</v>
+      </c>
+      <c r="I185">
+        <v>-2</v>
+      </c>
+      <c r="J185">
+        <v>-6</v>
+      </c>
+      <c r="K185">
+        <v>-11</v>
+      </c>
+      <c r="L185">
+        <v>40</v>
+      </c>
+      <c r="M185">
+        <v>20</v>
+      </c>
+      <c r="N185">
+        <v>8</v>
+      </c>
+      <c r="O185">
+        <v>1020</v>
+      </c>
+      <c r="P185">
+        <v>1019</v>
+      </c>
+      <c r="Q185">
+        <v>1016</v>
+      </c>
+      <c r="U185">
+        <v>14</v>
+      </c>
+      <c r="V185">
+        <v>8</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13693,8 +14891,56 @@
       <c r="E186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>30</v>
+      </c>
+      <c r="G186">
+        <v>18</v>
+      </c>
+      <c r="H186">
+        <v>5</v>
+      </c>
+      <c r="I186">
+        <v>-5</v>
+      </c>
+      <c r="J186">
+        <v>-7</v>
+      </c>
+      <c r="K186">
+        <v>-10</v>
+      </c>
+      <c r="L186">
+        <v>39</v>
+      </c>
+      <c r="M186">
+        <v>19</v>
+      </c>
+      <c r="N186">
+        <v>7</v>
+      </c>
+      <c r="O186">
+        <v>1021</v>
+      </c>
+      <c r="P186">
+        <v>1019</v>
+      </c>
+      <c r="Q186">
+        <v>1016</v>
+      </c>
+      <c r="U186">
+        <v>23</v>
+      </c>
+      <c r="V186">
+        <v>8</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13710,8 +14956,56 @@
       <c r="E187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>29</v>
+      </c>
+      <c r="G187">
+        <v>18</v>
+      </c>
+      <c r="H187">
+        <v>8</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>-4</v>
+      </c>
+      <c r="K187">
+        <v>-8</v>
+      </c>
+      <c r="L187">
+        <v>37</v>
+      </c>
+      <c r="M187">
+        <v>22</v>
+      </c>
+      <c r="N187">
+        <v>8</v>
+      </c>
+      <c r="O187">
+        <v>1023</v>
+      </c>
+      <c r="P187">
+        <v>1021</v>
+      </c>
+      <c r="Q187">
+        <v>1020</v>
+      </c>
+      <c r="U187">
+        <v>19</v>
+      </c>
+      <c r="V187">
+        <v>8</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13727,8 +15021,56 @@
       <c r="E188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>29</v>
+      </c>
+      <c r="G188">
+        <v>18</v>
+      </c>
+      <c r="H188">
+        <v>8</v>
+      </c>
+      <c r="I188">
+        <v>-1</v>
+      </c>
+      <c r="J188">
+        <v>-4</v>
+      </c>
+      <c r="K188">
+        <v>-8</v>
+      </c>
+      <c r="L188">
+        <v>36</v>
+      </c>
+      <c r="M188">
+        <v>23</v>
+      </c>
+      <c r="N188">
+        <v>10</v>
+      </c>
+      <c r="O188">
+        <v>1022</v>
+      </c>
+      <c r="P188">
+        <v>1020</v>
+      </c>
+      <c r="Q188">
+        <v>1018</v>
+      </c>
+      <c r="U188">
+        <v>23</v>
+      </c>
+      <c r="V188">
+        <v>6</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13744,8 +15086,56 @@
       <c r="E189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>27</v>
+      </c>
+      <c r="G189">
+        <v>18</v>
+      </c>
+      <c r="H189">
+        <v>10</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>-3</v>
+      </c>
+      <c r="K189">
+        <v>-6</v>
+      </c>
+      <c r="L189">
+        <v>43</v>
+      </c>
+      <c r="M189">
+        <v>27</v>
+      </c>
+      <c r="N189">
+        <v>12</v>
+      </c>
+      <c r="O189">
+        <v>1018</v>
+      </c>
+      <c r="P189">
+        <v>1016</v>
+      </c>
+      <c r="Q189">
+        <v>1014</v>
+      </c>
+      <c r="U189">
+        <v>29</v>
+      </c>
+      <c r="V189">
+        <v>11</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13761,8 +15151,56 @@
       <c r="E190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>27</v>
+      </c>
+      <c r="G190">
+        <v>16</v>
+      </c>
+      <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190">
+        <v>-5</v>
+      </c>
+      <c r="K190">
+        <v>-14</v>
+      </c>
+      <c r="L190">
+        <v>61</v>
+      </c>
+      <c r="M190">
+        <v>29</v>
+      </c>
+      <c r="N190">
+        <v>8</v>
+      </c>
+      <c r="O190">
+        <v>1019</v>
+      </c>
+      <c r="P190">
+        <v>1017</v>
+      </c>
+      <c r="Q190">
+        <v>1015</v>
+      </c>
+      <c r="U190">
+        <v>14</v>
+      </c>
+      <c r="V190">
+        <v>6</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13778,8 +15216,59 @@
       <c r="E191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>26</v>
+      </c>
+      <c r="G191">
+        <v>16</v>
+      </c>
+      <c r="H191">
+        <v>6</v>
+      </c>
+      <c r="I191">
+        <v>-4</v>
+      </c>
+      <c r="J191">
+        <v>-8</v>
+      </c>
+      <c r="K191">
+        <v>-12</v>
+      </c>
+      <c r="L191">
+        <v>31</v>
+      </c>
+      <c r="M191">
+        <v>19</v>
+      </c>
+      <c r="N191">
+        <v>10</v>
+      </c>
+      <c r="O191">
+        <v>1022</v>
+      </c>
+      <c r="P191">
+        <v>1019</v>
+      </c>
+      <c r="Q191">
+        <v>1017</v>
+      </c>
+      <c r="U191">
+        <v>26</v>
+      </c>
+      <c r="V191">
+        <v>8</v>
+      </c>
+      <c r="W191">
+        <v>42</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13795,8 +15284,56 @@
       <c r="E192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>28</v>
+      </c>
+      <c r="G192">
+        <v>17</v>
+      </c>
+      <c r="H192">
+        <v>7</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>-3</v>
+      </c>
+      <c r="K192">
+        <v>-7</v>
+      </c>
+      <c r="L192">
+        <v>49</v>
+      </c>
+      <c r="M192">
+        <v>26</v>
+      </c>
+      <c r="N192">
+        <v>11</v>
+      </c>
+      <c r="O192">
+        <v>1024</v>
+      </c>
+      <c r="P192">
+        <v>1022</v>
+      </c>
+      <c r="Q192">
+        <v>1020</v>
+      </c>
+      <c r="U192">
+        <v>26</v>
+      </c>
+      <c r="V192">
+        <v>6</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13812,8 +15349,56 @@
       <c r="E193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>27</v>
+      </c>
+      <c r="G193">
+        <v>16</v>
+      </c>
+      <c r="H193">
+        <v>6</v>
+      </c>
+      <c r="I193">
+        <v>-1</v>
+      </c>
+      <c r="J193">
+        <v>-4</v>
+      </c>
+      <c r="K193">
+        <v>-8</v>
+      </c>
+      <c r="L193">
+        <v>42</v>
+      </c>
+      <c r="M193">
+        <v>24</v>
+      </c>
+      <c r="N193">
+        <v>14</v>
+      </c>
+      <c r="O193">
+        <v>1024</v>
+      </c>
+      <c r="P193">
+        <v>1021</v>
+      </c>
+      <c r="Q193">
+        <v>1018</v>
+      </c>
+      <c r="U193">
+        <v>26</v>
+      </c>
+      <c r="V193">
+        <v>8</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13829,8 +15414,56 @@
       <c r="E194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>24</v>
+      </c>
+      <c r="G194">
+        <v>14</v>
+      </c>
+      <c r="H194">
+        <v>6</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>-4</v>
+      </c>
+      <c r="K194">
+        <v>-6</v>
+      </c>
+      <c r="L194">
+        <v>46</v>
+      </c>
+      <c r="M194">
+        <v>27</v>
+      </c>
+      <c r="N194">
+        <v>14</v>
+      </c>
+      <c r="O194">
+        <v>1020</v>
+      </c>
+      <c r="P194">
+        <v>1017</v>
+      </c>
+      <c r="Q194">
+        <v>1015</v>
+      </c>
+      <c r="U194">
+        <v>19</v>
+      </c>
+      <c r="V194">
+        <v>8</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13846,8 +15479,65 @@
       <c r="E195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>24</v>
+      </c>
+      <c r="G195">
+        <v>14</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>-4</v>
+      </c>
+      <c r="K195">
+        <v>-10</v>
+      </c>
+      <c r="L195">
+        <v>50</v>
+      </c>
+      <c r="M195">
+        <v>30</v>
+      </c>
+      <c r="N195">
+        <v>11</v>
+      </c>
+      <c r="O195">
+        <v>1017</v>
+      </c>
+      <c r="P195">
+        <v>1015</v>
+      </c>
+      <c r="Q195">
+        <v>1013</v>
+      </c>
+      <c r="R195">
+        <v>8</v>
+      </c>
+      <c r="S195">
+        <v>8</v>
+      </c>
+      <c r="T195">
+        <v>8</v>
+      </c>
+      <c r="U195">
+        <v>14</v>
+      </c>
+      <c r="V195">
+        <v>6</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13863,8 +15553,68 @@
       <c r="E196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>19</v>
+      </c>
+      <c r="G196">
+        <v>12</v>
+      </c>
+      <c r="H196">
+        <v>5</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
+        <v>-1</v>
+      </c>
+      <c r="L196">
+        <v>70</v>
+      </c>
+      <c r="M196">
+        <v>49</v>
+      </c>
+      <c r="N196">
+        <v>30</v>
+      </c>
+      <c r="O196">
+        <v>1025</v>
+      </c>
+      <c r="P196">
+        <v>1020</v>
+      </c>
+      <c r="Q196">
+        <v>1017</v>
+      </c>
+      <c r="R196">
+        <v>10</v>
+      </c>
+      <c r="S196">
+        <v>10</v>
+      </c>
+      <c r="T196">
+        <v>10</v>
+      </c>
+      <c r="U196">
+        <v>32</v>
+      </c>
+      <c r="V196">
+        <v>11</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>4</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13880,8 +15630,68 @@
       <c r="E197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>19</v>
+      </c>
+      <c r="G197">
+        <v>11</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>-3</v>
+      </c>
+      <c r="K197">
+        <v>-6</v>
+      </c>
+      <c r="L197">
+        <v>75</v>
+      </c>
+      <c r="M197">
+        <v>39</v>
+      </c>
+      <c r="N197">
+        <v>21</v>
+      </c>
+      <c r="O197">
+        <v>1027</v>
+      </c>
+      <c r="P197">
+        <v>1026</v>
+      </c>
+      <c r="Q197">
+        <v>1024</v>
+      </c>
+      <c r="R197">
+        <v>10</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>10</v>
+      </c>
+      <c r="U197">
+        <v>32</v>
+      </c>
+      <c r="V197">
+        <v>10</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>1</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13897,8 +15707,68 @@
       <c r="E198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>21</v>
+      </c>
+      <c r="G198">
+        <v>11</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>-4</v>
+      </c>
+      <c r="K198">
+        <v>-8</v>
+      </c>
+      <c r="L198">
+        <v>56</v>
+      </c>
+      <c r="M198">
+        <v>37</v>
+      </c>
+      <c r="N198">
+        <v>23</v>
+      </c>
+      <c r="O198">
+        <v>1026</v>
+      </c>
+      <c r="P198">
+        <v>1024</v>
+      </c>
+      <c r="Q198">
+        <v>1021</v>
+      </c>
+      <c r="R198">
+        <v>10</v>
+      </c>
+      <c r="S198">
+        <v>10</v>
+      </c>
+      <c r="T198">
+        <v>10</v>
+      </c>
+      <c r="U198">
+        <v>14</v>
+      </c>
+      <c r="V198">
+        <v>6</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>1</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13914,8 +15784,68 @@
       <c r="E199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>23</v>
+      </c>
+      <c r="G199">
+        <v>13</v>
+      </c>
+      <c r="H199">
+        <v>3</v>
+      </c>
+      <c r="I199">
+        <v>-1</v>
+      </c>
+      <c r="J199">
+        <v>-3</v>
+      </c>
+      <c r="K199">
+        <v>-6</v>
+      </c>
+      <c r="L199">
+        <v>60</v>
+      </c>
+      <c r="M199">
+        <v>34</v>
+      </c>
+      <c r="N199">
+        <v>17</v>
+      </c>
+      <c r="O199">
+        <v>1022</v>
+      </c>
+      <c r="P199">
+        <v>1021</v>
+      </c>
+      <c r="Q199">
+        <v>1019</v>
+      </c>
+      <c r="R199">
+        <v>10</v>
+      </c>
+      <c r="S199">
+        <v>10</v>
+      </c>
+      <c r="T199">
+        <v>10</v>
+      </c>
+      <c r="U199">
+        <v>23</v>
+      </c>
+      <c r="V199">
+        <v>6</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>1</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13931,8 +15861,68 @@
       <c r="E200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200">
+        <v>14</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200">
+        <v>-1</v>
+      </c>
+      <c r="J200">
+        <v>-3</v>
+      </c>
+      <c r="K200">
+        <v>-7</v>
+      </c>
+      <c r="L200">
+        <v>49</v>
+      </c>
+      <c r="M200">
+        <v>31</v>
+      </c>
+      <c r="N200">
+        <v>17</v>
+      </c>
+      <c r="O200">
+        <v>1021</v>
+      </c>
+      <c r="P200">
+        <v>1020</v>
+      </c>
+      <c r="Q200">
+        <v>1018</v>
+      </c>
+      <c r="R200">
+        <v>10</v>
+      </c>
+      <c r="S200">
+        <v>10</v>
+      </c>
+      <c r="T200">
+        <v>10</v>
+      </c>
+      <c r="U200">
+        <v>14</v>
+      </c>
+      <c r="V200">
+        <v>5</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>1</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13948,8 +15938,68 @@
       <c r="E201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201">
+        <v>26</v>
+      </c>
+      <c r="G201">
+        <v>14</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+      <c r="I201">
+        <v>-1</v>
+      </c>
+      <c r="J201">
+        <v>-4</v>
+      </c>
+      <c r="K201">
+        <v>-7</v>
+      </c>
+      <c r="L201">
+        <v>52</v>
+      </c>
+      <c r="M201">
+        <v>29</v>
+      </c>
+      <c r="N201">
+        <v>14</v>
+      </c>
+      <c r="O201">
+        <v>1023</v>
+      </c>
+      <c r="P201">
+        <v>1021</v>
+      </c>
+      <c r="Q201">
+        <v>1020</v>
+      </c>
+      <c r="R201">
+        <v>10</v>
+      </c>
+      <c r="S201">
+        <v>10</v>
+      </c>
+      <c r="T201">
+        <v>10</v>
+      </c>
+      <c r="U201">
+        <v>14</v>
+      </c>
+      <c r="V201">
+        <v>5</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>1</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13965,8 +16015,56 @@
       <c r="E202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202">
+        <v>16</v>
+      </c>
+      <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202">
+        <v>-2</v>
+      </c>
+      <c r="J202">
+        <v>-6</v>
+      </c>
+      <c r="K202">
+        <v>-9</v>
+      </c>
+      <c r="L202">
+        <v>50</v>
+      </c>
+      <c r="M202">
+        <v>26</v>
+      </c>
+      <c r="N202">
+        <v>13</v>
+      </c>
+      <c r="O202">
+        <v>1025</v>
+      </c>
+      <c r="P202">
+        <v>1023</v>
+      </c>
+      <c r="Q202">
+        <v>1022</v>
+      </c>
+      <c r="U202">
+        <v>19</v>
+      </c>
+      <c r="V202">
+        <v>5</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13982,8 +16080,56 @@
       <c r="E203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>27</v>
+      </c>
+      <c r="G203">
+        <v>16</v>
+      </c>
+      <c r="H203">
+        <v>4</v>
+      </c>
+      <c r="I203">
+        <v>-3</v>
+      </c>
+      <c r="J203">
+        <v>-6</v>
+      </c>
+      <c r="K203">
+        <v>-9</v>
+      </c>
+      <c r="L203">
+        <v>42</v>
+      </c>
+      <c r="M203">
+        <v>22</v>
+      </c>
+      <c r="N203">
+        <v>11</v>
+      </c>
+      <c r="O203">
+        <v>1025</v>
+      </c>
+      <c r="P203">
+        <v>1023</v>
+      </c>
+      <c r="Q203">
+        <v>1021</v>
+      </c>
+      <c r="U203">
+        <v>19</v>
+      </c>
+      <c r="V203">
+        <v>6</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13999,8 +16145,56 @@
       <c r="E204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>25</v>
+      </c>
+      <c r="G204">
+        <v>16</v>
+      </c>
+      <c r="H204">
+        <v>6</v>
+      </c>
+      <c r="I204">
+        <v>-6</v>
+      </c>
+      <c r="J204">
+        <v>-8</v>
+      </c>
+      <c r="K204">
+        <v>-12</v>
+      </c>
+      <c r="L204">
+        <v>37</v>
+      </c>
+      <c r="M204">
+        <v>19</v>
+      </c>
+      <c r="N204">
+        <v>9</v>
+      </c>
+      <c r="O204">
+        <v>1025</v>
+      </c>
+      <c r="P204">
+        <v>1023</v>
+      </c>
+      <c r="Q204">
+        <v>1020</v>
+      </c>
+      <c r="U204">
+        <v>14</v>
+      </c>
+      <c r="V204">
+        <v>6</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>95</v>
       </c>
@@ -14016,8 +16210,68 @@
       <c r="E205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>25</v>
+      </c>
+      <c r="G205">
+        <v>13</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>-6</v>
+      </c>
+      <c r="J205">
+        <v>-9</v>
+      </c>
+      <c r="K205">
+        <v>-11</v>
+      </c>
+      <c r="L205">
+        <v>44</v>
+      </c>
+      <c r="M205">
+        <v>19</v>
+      </c>
+      <c r="N205">
+        <v>9</v>
+      </c>
+      <c r="O205">
+        <v>1022</v>
+      </c>
+      <c r="P205">
+        <v>1021</v>
+      </c>
+      <c r="Q205">
+        <v>1019</v>
+      </c>
+      <c r="R205">
+        <v>10</v>
+      </c>
+      <c r="S205">
+        <v>10</v>
+      </c>
+      <c r="T205">
+        <v>10</v>
+      </c>
+      <c r="U205">
+        <v>26</v>
+      </c>
+      <c r="V205">
+        <v>8</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>1</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>95</v>
       </c>
@@ -14033,8 +16287,56 @@
       <c r="E206">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>25</v>
+      </c>
+      <c r="G206">
+        <v>15</v>
+      </c>
+      <c r="H206">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>-4</v>
+      </c>
+      <c r="J206">
+        <v>-7</v>
+      </c>
+      <c r="K206">
+        <v>-9</v>
+      </c>
+      <c r="L206">
+        <v>46</v>
+      </c>
+      <c r="M206">
+        <v>22</v>
+      </c>
+      <c r="N206">
+        <v>11</v>
+      </c>
+      <c r="O206">
+        <v>1023</v>
+      </c>
+      <c r="P206">
+        <v>1021</v>
+      </c>
+      <c r="Q206">
+        <v>1020</v>
+      </c>
+      <c r="U206">
+        <v>14</v>
+      </c>
+      <c r="V206">
+        <v>5</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>95</v>
       </c>
@@ -14050,8 +16352,56 @@
       <c r="E207">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>24</v>
+      </c>
+      <c r="G207">
+        <v>13</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>-6</v>
+      </c>
+      <c r="J207">
+        <v>-9</v>
+      </c>
+      <c r="K207">
+        <v>-13</v>
+      </c>
+      <c r="L207">
+        <v>48</v>
+      </c>
+      <c r="M207">
+        <v>20</v>
+      </c>
+      <c r="N207">
+        <v>9</v>
+      </c>
+      <c r="O207">
+        <v>1022</v>
+      </c>
+      <c r="P207">
+        <v>1020</v>
+      </c>
+      <c r="Q207">
+        <v>1018</v>
+      </c>
+      <c r="U207">
+        <v>23</v>
+      </c>
+      <c r="V207">
+        <v>8</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>95</v>
       </c>
@@ -14067,8 +16417,56 @@
       <c r="E208">
         <v>6</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>24</v>
+      </c>
+      <c r="G208">
+        <v>14</v>
+      </c>
+      <c r="H208">
+        <v>5</v>
+      </c>
+      <c r="I208">
+        <v>-3</v>
+      </c>
+      <c r="J208">
+        <v>-6</v>
+      </c>
+      <c r="K208">
+        <v>-9</v>
+      </c>
+      <c r="L208">
+        <v>45</v>
+      </c>
+      <c r="M208">
+        <v>24</v>
+      </c>
+      <c r="N208">
+        <v>12</v>
+      </c>
+      <c r="O208">
+        <v>1023</v>
+      </c>
+      <c r="P208">
+        <v>1021</v>
+      </c>
+      <c r="Q208">
+        <v>1020</v>
+      </c>
+      <c r="U208">
+        <v>11</v>
+      </c>
+      <c r="V208">
+        <v>5</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>95</v>
       </c>
@@ -14084,8 +16482,56 @@
       <c r="E209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209">
+        <v>25</v>
+      </c>
+      <c r="G209">
+        <v>14</v>
+      </c>
+      <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
+        <v>-5</v>
+      </c>
+      <c r="J209">
+        <v>-7</v>
+      </c>
+      <c r="K209">
+        <v>-10</v>
+      </c>
+      <c r="L209">
+        <v>49</v>
+      </c>
+      <c r="M209">
+        <v>22</v>
+      </c>
+      <c r="N209">
+        <v>9</v>
+      </c>
+      <c r="O209">
+        <v>1023</v>
+      </c>
+      <c r="P209">
+        <v>1021</v>
+      </c>
+      <c r="Q209">
+        <v>1018</v>
+      </c>
+      <c r="U209">
+        <v>19</v>
+      </c>
+      <c r="V209">
+        <v>6</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>95</v>
       </c>
@@ -14101,8 +16547,68 @@
       <c r="E210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>22</v>
+      </c>
+      <c r="G210">
+        <v>13</v>
+      </c>
+      <c r="H210">
+        <v>5</v>
+      </c>
+      <c r="I210">
+        <v>-1</v>
+      </c>
+      <c r="J210">
+        <v>-3</v>
+      </c>
+      <c r="K210">
+        <v>-8</v>
+      </c>
+      <c r="L210">
+        <v>49</v>
+      </c>
+      <c r="M210">
+        <v>28</v>
+      </c>
+      <c r="N210">
+        <v>17</v>
+      </c>
+      <c r="O210">
+        <v>1022</v>
+      </c>
+      <c r="P210">
+        <v>1020</v>
+      </c>
+      <c r="Q210">
+        <v>1019</v>
+      </c>
+      <c r="R210">
+        <v>10</v>
+      </c>
+      <c r="S210">
+        <v>10</v>
+      </c>
+      <c r="T210">
+        <v>9</v>
+      </c>
+      <c r="U210">
+        <v>23</v>
+      </c>
+      <c r="V210">
+        <v>8</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>2</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>95</v>
       </c>
@@ -14118,8 +16624,56 @@
       <c r="E211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211">
+        <v>22</v>
+      </c>
+      <c r="G211">
+        <v>13</v>
+      </c>
+      <c r="H211">
+        <v>4</v>
+      </c>
+      <c r="I211">
+        <v>-2</v>
+      </c>
+      <c r="J211">
+        <v>-6</v>
+      </c>
+      <c r="K211">
+        <v>-8</v>
+      </c>
+      <c r="L211">
+        <v>49</v>
+      </c>
+      <c r="M211">
+        <v>26</v>
+      </c>
+      <c r="N211">
+        <v>13</v>
+      </c>
+      <c r="O211">
+        <v>1023</v>
+      </c>
+      <c r="P211">
+        <v>1022</v>
+      </c>
+      <c r="Q211">
+        <v>1020</v>
+      </c>
+      <c r="U211">
+        <v>35</v>
+      </c>
+      <c r="V211">
+        <v>14</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>95</v>
       </c>
@@ -14135,8 +16689,68 @@
       <c r="E212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="G212">
+        <v>12</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>-3</v>
+      </c>
+      <c r="J212">
+        <v>-6</v>
+      </c>
+      <c r="K212">
+        <v>-10</v>
+      </c>
+      <c r="L212">
+        <v>44</v>
+      </c>
+      <c r="M212">
+        <v>25</v>
+      </c>
+      <c r="N212">
+        <v>15</v>
+      </c>
+      <c r="O212">
+        <v>1023</v>
+      </c>
+      <c r="P212">
+        <v>1022</v>
+      </c>
+      <c r="Q212">
+        <v>1021</v>
+      </c>
+      <c r="R212">
+        <v>10</v>
+      </c>
+      <c r="S212">
+        <v>10</v>
+      </c>
+      <c r="T212">
+        <v>10</v>
+      </c>
+      <c r="U212">
+        <v>32</v>
+      </c>
+      <c r="V212">
+        <v>14</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>2</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>95</v>
       </c>
@@ -14152,8 +16766,68 @@
       <c r="E213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213">
+        <v>14</v>
+      </c>
+      <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
+        <v>-2</v>
+      </c>
+      <c r="J213">
+        <v>-3</v>
+      </c>
+      <c r="K213">
+        <v>-6</v>
+      </c>
+      <c r="L213">
+        <v>49</v>
+      </c>
+      <c r="M213">
+        <v>28</v>
+      </c>
+      <c r="N213">
+        <v>16</v>
+      </c>
+      <c r="O213">
+        <v>1023</v>
+      </c>
+      <c r="P213">
+        <v>1021</v>
+      </c>
+      <c r="Q213">
+        <v>1020</v>
+      </c>
+      <c r="R213">
+        <v>10</v>
+      </c>
+      <c r="S213">
+        <v>10</v>
+      </c>
+      <c r="T213">
+        <v>10</v>
+      </c>
+      <c r="U213">
+        <v>29</v>
+      </c>
+      <c r="V213">
+        <v>10</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>3</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>95</v>
       </c>
@@ -14169,8 +16843,68 @@
       <c r="E214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214">
+        <v>12</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
+        <v>-1</v>
+      </c>
+      <c r="J214">
+        <v>-3</v>
+      </c>
+      <c r="K214">
+        <v>-5</v>
+      </c>
+      <c r="L214">
+        <v>61</v>
+      </c>
+      <c r="M214">
+        <v>39</v>
+      </c>
+      <c r="N214">
+        <v>17</v>
+      </c>
+      <c r="O214">
+        <v>1024</v>
+      </c>
+      <c r="P214">
+        <v>1022</v>
+      </c>
+      <c r="Q214">
+        <v>1020</v>
+      </c>
+      <c r="R214">
+        <v>10</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>10</v>
+      </c>
+      <c r="U214">
+        <v>26</v>
+      </c>
+      <c r="V214">
+        <v>5</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>3</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>95</v>
       </c>
@@ -14186,8 +16920,56 @@
       <c r="E215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215">
+        <v>23</v>
+      </c>
+      <c r="G215">
+        <v>12</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>-2</v>
+      </c>
+      <c r="J215">
+        <v>-6</v>
+      </c>
+      <c r="K215">
+        <v>-12</v>
+      </c>
+      <c r="L215">
+        <v>56</v>
+      </c>
+      <c r="M215">
+        <v>30</v>
+      </c>
+      <c r="N215">
+        <v>12</v>
+      </c>
+      <c r="O215">
+        <v>1023</v>
+      </c>
+      <c r="P215">
+        <v>1021</v>
+      </c>
+      <c r="Q215">
+        <v>1019</v>
+      </c>
+      <c r="U215">
+        <v>14</v>
+      </c>
+      <c r="V215">
+        <v>3</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>95</v>
       </c>
@@ -14203,8 +16985,56 @@
       <c r="E216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216">
+        <v>11</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>-5</v>
+      </c>
+      <c r="J216">
+        <v>-7</v>
+      </c>
+      <c r="K216">
+        <v>-10</v>
+      </c>
+      <c r="L216">
+        <v>48</v>
+      </c>
+      <c r="M216">
+        <v>26</v>
+      </c>
+      <c r="N216">
+        <v>14</v>
+      </c>
+      <c r="O216">
+        <v>1023</v>
+      </c>
+      <c r="P216">
+        <v>1021</v>
+      </c>
+      <c r="Q216">
+        <v>1020</v>
+      </c>
+      <c r="U216">
+        <v>11</v>
+      </c>
+      <c r="V216">
+        <v>3</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>95</v>
       </c>
@@ -14220,8 +17050,56 @@
       <c r="E217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>20</v>
+      </c>
+      <c r="G217">
+        <v>10</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>-1</v>
+      </c>
+      <c r="J217">
+        <v>-4</v>
+      </c>
+      <c r="K217">
+        <v>-9</v>
+      </c>
+      <c r="L217">
+        <v>57</v>
+      </c>
+      <c r="M217">
+        <v>40</v>
+      </c>
+      <c r="N217">
+        <v>20</v>
+      </c>
+      <c r="O217">
+        <v>1024</v>
+      </c>
+      <c r="P217">
+        <v>1023</v>
+      </c>
+      <c r="Q217">
+        <v>1021</v>
+      </c>
+      <c r="U217">
+        <v>19</v>
+      </c>
+      <c r="V217">
+        <v>5</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>95</v>
       </c>
@@ -14237,8 +17115,56 @@
       <c r="E218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218">
+        <v>20</v>
+      </c>
+      <c r="G218">
+        <v>10</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>-2</v>
+      </c>
+      <c r="K218">
+        <v>-5</v>
+      </c>
+      <c r="L218">
+        <v>75</v>
+      </c>
+      <c r="M218">
+        <v>44</v>
+      </c>
+      <c r="N218">
+        <v>23</v>
+      </c>
+      <c r="O218">
+        <v>1024</v>
+      </c>
+      <c r="P218">
+        <v>1022</v>
+      </c>
+      <c r="Q218">
+        <v>1021</v>
+      </c>
+      <c r="U218">
+        <v>14</v>
+      </c>
+      <c r="V218">
+        <v>5</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>95</v>
       </c>
@@ -14254,8 +17180,71 @@
       <c r="E219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="G219">
+        <v>9</v>
+      </c>
+      <c r="H219">
+        <v>-1</v>
+      </c>
+      <c r="I219">
+        <v>5</v>
+      </c>
+      <c r="J219">
+        <v>-3</v>
+      </c>
+      <c r="K219">
+        <v>-6</v>
+      </c>
+      <c r="L219">
+        <v>81</v>
+      </c>
+      <c r="M219">
+        <v>43</v>
+      </c>
+      <c r="N219">
+        <v>21</v>
+      </c>
+      <c r="O219">
+        <v>1024</v>
+      </c>
+      <c r="P219">
+        <v>1022</v>
+      </c>
+      <c r="Q219">
+        <v>1021</v>
+      </c>
+      <c r="R219">
+        <v>10</v>
+      </c>
+      <c r="S219">
+        <v>10</v>
+      </c>
+      <c r="T219">
+        <v>7</v>
+      </c>
+      <c r="U219">
+        <v>23</v>
+      </c>
+      <c r="V219">
+        <v>5</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>5</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>95</v>
       </c>
@@ -14271,8 +17260,68 @@
       <c r="E220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>21</v>
+      </c>
+      <c r="G220">
+        <v>12</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
+        <v>5</v>
+      </c>
+      <c r="J220">
+        <v>2</v>
+      </c>
+      <c r="K220">
+        <v>-3</v>
+      </c>
+      <c r="L220">
+        <v>93</v>
+      </c>
+      <c r="M220">
+        <v>54</v>
+      </c>
+      <c r="N220">
+        <v>20</v>
+      </c>
+      <c r="O220">
+        <v>1024</v>
+      </c>
+      <c r="P220">
+        <v>1022</v>
+      </c>
+      <c r="Q220">
+        <v>1020</v>
+      </c>
+      <c r="R220">
+        <v>10</v>
+      </c>
+      <c r="S220">
+        <v>9</v>
+      </c>
+      <c r="T220">
+        <v>8</v>
+      </c>
+      <c r="U220">
+        <v>26</v>
+      </c>
+      <c r="V220">
+        <v>6</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>3</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>95</v>
       </c>
@@ -14288,8 +17337,68 @@
       <c r="E221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221">
+        <v>23</v>
+      </c>
+      <c r="G221">
+        <v>14</v>
+      </c>
+      <c r="H221">
+        <v>6</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>-2</v>
+      </c>
+      <c r="K221">
+        <v>-6</v>
+      </c>
+      <c r="L221">
+        <v>70</v>
+      </c>
+      <c r="M221">
+        <v>42</v>
+      </c>
+      <c r="N221">
+        <v>16</v>
+      </c>
+      <c r="O221">
+        <v>1023</v>
+      </c>
+      <c r="P221">
+        <v>1021</v>
+      </c>
+      <c r="Q221">
+        <v>1019</v>
+      </c>
+      <c r="R221">
+        <v>10</v>
+      </c>
+      <c r="S221">
+        <v>10</v>
+      </c>
+      <c r="T221">
+        <v>10</v>
+      </c>
+      <c r="U221">
+        <v>29</v>
+      </c>
+      <c r="V221">
+        <v>6</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>4</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>95</v>
       </c>
@@ -14305,8 +17414,68 @@
       <c r="E222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222">
+        <v>22</v>
+      </c>
+      <c r="G222">
+        <v>16</v>
+      </c>
+      <c r="H222">
+        <v>10</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>-1</v>
+      </c>
+      <c r="K222">
+        <v>-3</v>
+      </c>
+      <c r="L222">
+        <v>44</v>
+      </c>
+      <c r="M222">
+        <v>30</v>
+      </c>
+      <c r="N222">
+        <v>22</v>
+      </c>
+      <c r="O222">
+        <v>1031</v>
+      </c>
+      <c r="P222">
+        <v>1027</v>
+      </c>
+      <c r="Q222">
+        <v>1022</v>
+      </c>
+      <c r="R222">
+        <v>10</v>
+      </c>
+      <c r="S222">
+        <v>10</v>
+      </c>
+      <c r="T222">
+        <v>10</v>
+      </c>
+      <c r="U222">
+        <v>23</v>
+      </c>
+      <c r="V222">
+        <v>11</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>2</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>95</v>
       </c>
@@ -14322,8 +17491,68 @@
       <c r="E223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223">
+        <v>22</v>
+      </c>
+      <c r="G223">
+        <v>13</v>
+      </c>
+      <c r="H223">
+        <v>6</v>
+      </c>
+      <c r="I223">
+        <v>2</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>-2</v>
+      </c>
+      <c r="L223">
+        <v>61</v>
+      </c>
+      <c r="M223">
+        <v>38</v>
+      </c>
+      <c r="N223">
+        <v>25</v>
+      </c>
+      <c r="O223">
+        <v>1032</v>
+      </c>
+      <c r="P223">
+        <v>1029</v>
+      </c>
+      <c r="Q223">
+        <v>1026</v>
+      </c>
+      <c r="R223">
+        <v>10</v>
+      </c>
+      <c r="S223">
+        <v>10</v>
+      </c>
+      <c r="T223">
+        <v>10</v>
+      </c>
+      <c r="U223">
+        <v>14</v>
+      </c>
+      <c r="V223">
+        <v>6</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>5</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>95</v>
       </c>
@@ -14339,8 +17568,68 @@
       <c r="E224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>22</v>
+      </c>
+      <c r="G224">
+        <v>14</v>
+      </c>
+      <c r="H224">
+        <v>7</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224">
+        <v>-1</v>
+      </c>
+      <c r="K224">
+        <v>-4</v>
+      </c>
+      <c r="L224">
+        <v>57</v>
+      </c>
+      <c r="M224">
+        <v>36</v>
+      </c>
+      <c r="N224">
+        <v>23</v>
+      </c>
+      <c r="O224">
+        <v>1025</v>
+      </c>
+      <c r="P224">
+        <v>1023</v>
+      </c>
+      <c r="Q224">
+        <v>1021</v>
+      </c>
+      <c r="R224">
+        <v>10</v>
+      </c>
+      <c r="S224">
+        <v>10</v>
+      </c>
+      <c r="T224">
+        <v>10</v>
+      </c>
+      <c r="U224">
+        <v>29</v>
+      </c>
+      <c r="V224">
+        <v>6</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>3</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>95</v>
       </c>
@@ -14356,8 +17645,68 @@
       <c r="E225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225">
+        <v>21</v>
+      </c>
+      <c r="G225">
+        <v>13</v>
+      </c>
+      <c r="H225">
+        <v>6</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>-2</v>
+      </c>
+      <c r="K225">
+        <v>-4</v>
+      </c>
+      <c r="L225">
+        <v>53</v>
+      </c>
+      <c r="M225">
+        <v>32</v>
+      </c>
+      <c r="N225">
+        <v>20</v>
+      </c>
+      <c r="O225">
+        <v>1020</v>
+      </c>
+      <c r="P225">
+        <v>1019</v>
+      </c>
+      <c r="Q225">
+        <v>1017</v>
+      </c>
+      <c r="R225">
+        <v>10</v>
+      </c>
+      <c r="S225">
+        <v>10</v>
+      </c>
+      <c r="T225">
+        <v>10</v>
+      </c>
+      <c r="U225">
+        <v>26</v>
+      </c>
+      <c r="V225">
+        <v>11</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>95</v>
       </c>
@@ -14373,8 +17722,68 @@
       <c r="E226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>20</v>
+      </c>
+      <c r="G226">
+        <v>14</v>
+      </c>
+      <c r="H226">
+        <v>8</v>
+      </c>
+      <c r="I226">
+        <v>5</v>
+      </c>
+      <c r="J226">
+        <v>-1</v>
+      </c>
+      <c r="K226">
+        <v>-3</v>
+      </c>
+      <c r="L226">
+        <v>55</v>
+      </c>
+      <c r="M226">
+        <v>35</v>
+      </c>
+      <c r="N226">
+        <v>24</v>
+      </c>
+      <c r="O226">
+        <v>1023</v>
+      </c>
+      <c r="P226">
+        <v>1021</v>
+      </c>
+      <c r="Q226">
+        <v>1020</v>
+      </c>
+      <c r="R226">
+        <v>10</v>
+      </c>
+      <c r="S226">
+        <v>10</v>
+      </c>
+      <c r="T226">
+        <v>10</v>
+      </c>
+      <c r="U226">
+        <v>29</v>
+      </c>
+      <c r="V226">
+        <v>11</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>3</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14390,8 +17799,71 @@
       <c r="E227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227">
+        <v>22</v>
+      </c>
+      <c r="G227">
+        <v>18</v>
+      </c>
+      <c r="H227">
+        <v>14</v>
+      </c>
+      <c r="I227">
+        <v>4</v>
+      </c>
+      <c r="J227">
+        <v>-1</v>
+      </c>
+      <c r="K227">
+        <v>-8</v>
+      </c>
+      <c r="L227">
+        <v>45</v>
+      </c>
+      <c r="M227">
+        <v>30</v>
+      </c>
+      <c r="N227">
+        <v>14</v>
+      </c>
+      <c r="O227">
+        <v>1020</v>
+      </c>
+      <c r="P227">
+        <v>1017</v>
+      </c>
+      <c r="Q227">
+        <v>1016</v>
+      </c>
+      <c r="R227">
+        <v>10</v>
+      </c>
+      <c r="S227">
+        <v>8</v>
+      </c>
+      <c r="T227">
+        <v>3</v>
+      </c>
+      <c r="U227">
+        <v>53</v>
+      </c>
+      <c r="V227">
+        <v>24</v>
+      </c>
+      <c r="W227">
+        <v>76</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>2</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14407,8 +17879,74 @@
       <c r="E228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228">
+        <v>18</v>
+      </c>
+      <c r="G228">
+        <v>13</v>
+      </c>
+      <c r="H228">
+        <v>7</v>
+      </c>
+      <c r="I228">
+        <v>7</v>
+      </c>
+      <c r="J228">
+        <v>2</v>
+      </c>
+      <c r="K228">
+        <v>-5</v>
+      </c>
+      <c r="L228">
+        <v>63</v>
+      </c>
+      <c r="M228">
+        <v>44</v>
+      </c>
+      <c r="N228">
+        <v>34</v>
+      </c>
+      <c r="O228">
+        <v>1018</v>
+      </c>
+      <c r="P228">
+        <v>1014</v>
+      </c>
+      <c r="Q228">
+        <v>1011</v>
+      </c>
+      <c r="R228">
+        <v>10</v>
+      </c>
+      <c r="S228">
+        <v>8</v>
+      </c>
+      <c r="T228">
+        <v>7</v>
+      </c>
+      <c r="U228">
+        <v>53</v>
+      </c>
+      <c r="V228">
+        <v>23</v>
+      </c>
+      <c r="W228">
+        <v>76</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>3</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14424,8 +17962,68 @@
       <c r="E229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229">
+        <v>16</v>
+      </c>
+      <c r="G229">
+        <v>7</v>
+      </c>
+      <c r="H229">
+        <v>-2</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>-2</v>
+      </c>
+      <c r="K229">
+        <v>-4</v>
+      </c>
+      <c r="L229">
+        <v>87</v>
+      </c>
+      <c r="M229">
+        <v>56</v>
+      </c>
+      <c r="N229">
+        <v>29</v>
+      </c>
+      <c r="O229">
+        <v>1028</v>
+      </c>
+      <c r="P229">
+        <v>1025</v>
+      </c>
+      <c r="Q229">
+        <v>1019</v>
+      </c>
+      <c r="R229">
+        <v>10</v>
+      </c>
+      <c r="S229">
+        <v>10</v>
+      </c>
+      <c r="T229">
+        <v>10</v>
+      </c>
+      <c r="U229">
+        <v>29</v>
+      </c>
+      <c r="V229">
+        <v>10</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14441,8 +18039,68 @@
       <c r="E230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230">
+        <v>17</v>
+      </c>
+      <c r="G230">
+        <v>6</v>
+      </c>
+      <c r="H230">
+        <v>-4</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>-3</v>
+      </c>
+      <c r="K230">
+        <v>-7</v>
+      </c>
+      <c r="L230">
+        <v>86</v>
+      </c>
+      <c r="M230">
+        <v>53</v>
+      </c>
+      <c r="N230">
+        <v>24</v>
+      </c>
+      <c r="O230">
+        <v>1028</v>
+      </c>
+      <c r="P230">
+        <v>1026</v>
+      </c>
+      <c r="Q230">
+        <v>1023</v>
+      </c>
+      <c r="R230">
+        <v>10</v>
+      </c>
+      <c r="S230">
+        <v>10</v>
+      </c>
+      <c r="T230">
+        <v>10</v>
+      </c>
+      <c r="U230">
+        <v>23</v>
+      </c>
+      <c r="V230">
+        <v>3</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>2</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14458,8 +18116,68 @@
       <c r="E231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231">
+        <v>18</v>
+      </c>
+      <c r="G231">
+        <v>10</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>-5</v>
+      </c>
+      <c r="L231">
+        <v>87</v>
+      </c>
+      <c r="M231">
+        <v>49</v>
+      </c>
+      <c r="N231">
+        <v>21</v>
+      </c>
+      <c r="O231">
+        <v>1025</v>
+      </c>
+      <c r="P231">
+        <v>1023</v>
+      </c>
+      <c r="Q231">
+        <v>1021</v>
+      </c>
+      <c r="R231">
+        <v>10</v>
+      </c>
+      <c r="S231">
+        <v>10</v>
+      </c>
+      <c r="T231">
+        <v>10</v>
+      </c>
+      <c r="U231">
+        <v>14</v>
+      </c>
+      <c r="V231">
+        <v>5</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14475,8 +18193,68 @@
       <c r="E232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232">
+        <v>16</v>
+      </c>
+      <c r="G232">
+        <v>10</v>
+      </c>
+      <c r="H232">
+        <v>4</v>
+      </c>
+      <c r="I232">
+        <v>6</v>
+      </c>
+      <c r="J232">
+        <v>5</v>
+      </c>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>93</v>
+      </c>
+      <c r="M232">
+        <v>68</v>
+      </c>
+      <c r="N232">
+        <v>42</v>
+      </c>
+      <c r="O232">
+        <v>1022</v>
+      </c>
+      <c r="P232">
+        <v>1021</v>
+      </c>
+      <c r="Q232">
+        <v>1019</v>
+      </c>
+      <c r="R232">
+        <v>10</v>
+      </c>
+      <c r="S232">
+        <v>10</v>
+      </c>
+      <c r="T232">
+        <v>10</v>
+      </c>
+      <c r="U232">
+        <v>8</v>
+      </c>
+      <c r="V232">
+        <v>2</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>3</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14492,8 +18270,68 @@
       <c r="E233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <v>12</v>
+      </c>
+      <c r="G233">
+        <v>7</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
+        <v>5</v>
+      </c>
+      <c r="J233">
+        <v>4</v>
+      </c>
+      <c r="K233">
+        <v>3</v>
+      </c>
+      <c r="L233">
+        <v>100</v>
+      </c>
+      <c r="M233">
+        <v>73</v>
+      </c>
+      <c r="N233">
+        <v>54</v>
+      </c>
+      <c r="O233">
+        <v>1025</v>
+      </c>
+      <c r="P233">
+        <v>1024</v>
+      </c>
+      <c r="Q233">
+        <v>1023</v>
+      </c>
+      <c r="R233">
+        <v>10</v>
+      </c>
+      <c r="S233">
+        <v>10</v>
+      </c>
+      <c r="T233">
+        <v>10</v>
+      </c>
+      <c r="U233">
+        <v>14</v>
+      </c>
+      <c r="V233">
+        <v>6</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>5</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14509,8 +18347,68 @@
       <c r="E234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234">
+        <v>14</v>
+      </c>
+      <c r="G234">
+        <v>7</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>-2</v>
+      </c>
+      <c r="K234">
+        <v>-9</v>
+      </c>
+      <c r="L234">
+        <v>93</v>
+      </c>
+      <c r="M234">
+        <v>55</v>
+      </c>
+      <c r="N234">
+        <v>20</v>
+      </c>
+      <c r="O234">
+        <v>1028</v>
+      </c>
+      <c r="P234">
+        <v>1027</v>
+      </c>
+      <c r="Q234">
+        <v>1026</v>
+      </c>
+      <c r="R234">
+        <v>10</v>
+      </c>
+      <c r="S234">
+        <v>10</v>
+      </c>
+      <c r="T234">
+        <v>10</v>
+      </c>
+      <c r="U234">
+        <v>14</v>
+      </c>
+      <c r="V234">
+        <v>2</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>1</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14526,8 +18424,56 @@
       <c r="E235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235">
+        <v>17</v>
+      </c>
+      <c r="G235">
+        <v>7</v>
+      </c>
+      <c r="H235">
+        <v>-3</v>
+      </c>
+      <c r="I235">
+        <v>-3</v>
+      </c>
+      <c r="J235">
+        <v>-6</v>
+      </c>
+      <c r="K235">
+        <v>-12</v>
+      </c>
+      <c r="L235">
+        <v>86</v>
+      </c>
+      <c r="M235">
+        <v>39</v>
+      </c>
+      <c r="N235">
+        <v>14</v>
+      </c>
+      <c r="O235">
+        <v>1028</v>
+      </c>
+      <c r="P235">
+        <v>1027</v>
+      </c>
+      <c r="Q235">
+        <v>1026</v>
+      </c>
+      <c r="U235">
+        <v>14</v>
+      </c>
+      <c r="V235">
+        <v>2</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14543,8 +18489,56 @@
       <c r="E236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236">
+        <v>19</v>
+      </c>
+      <c r="G236">
+        <v>9</v>
+      </c>
+      <c r="H236">
+        <v>-1</v>
+      </c>
+      <c r="I236">
+        <v>-3</v>
+      </c>
+      <c r="J236">
+        <v>-5</v>
+      </c>
+      <c r="K236">
+        <v>-7</v>
+      </c>
+      <c r="L236">
+        <v>75</v>
+      </c>
+      <c r="M236">
+        <v>34</v>
+      </c>
+      <c r="N236">
+        <v>18</v>
+      </c>
+      <c r="O236">
+        <v>1029</v>
+      </c>
+      <c r="P236">
+        <v>1027</v>
+      </c>
+      <c r="Q236">
+        <v>1025</v>
+      </c>
+      <c r="U236">
+        <v>8</v>
+      </c>
+      <c r="V236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14560,8 +18554,56 @@
       <c r="E237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237">
+        <v>22</v>
+      </c>
+      <c r="G237">
+        <v>11</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>-4</v>
+      </c>
+      <c r="J237">
+        <v>-4</v>
+      </c>
+      <c r="K237">
+        <v>-6</v>
+      </c>
+      <c r="L237">
+        <v>70</v>
+      </c>
+      <c r="M237">
+        <v>31</v>
+      </c>
+      <c r="N237">
+        <v>16</v>
+      </c>
+      <c r="O237">
+        <v>1027</v>
+      </c>
+      <c r="P237">
+        <v>1026</v>
+      </c>
+      <c r="Q237">
+        <v>1024</v>
+      </c>
+      <c r="U237">
+        <v>8</v>
+      </c>
+      <c r="V237">
+        <v>2</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14577,8 +18619,56 @@
       <c r="E238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238">
+        <v>21</v>
+      </c>
+      <c r="G238">
+        <v>10</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>-5</v>
+      </c>
+      <c r="J238">
+        <v>-7</v>
+      </c>
+      <c r="K238">
+        <v>-9</v>
+      </c>
+      <c r="L238">
+        <v>60</v>
+      </c>
+      <c r="M238">
+        <v>31</v>
+      </c>
+      <c r="N238">
+        <v>13</v>
+      </c>
+      <c r="O238">
+        <v>1028</v>
+      </c>
+      <c r="P238">
+        <v>1026</v>
+      </c>
+      <c r="Q238">
+        <v>1025</v>
+      </c>
+      <c r="U238">
+        <v>3</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14594,8 +18684,68 @@
       <c r="E239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239">
+        <v>18</v>
+      </c>
+      <c r="G239">
+        <v>8</v>
+      </c>
+      <c r="H239">
+        <v>-2</v>
+      </c>
+      <c r="I239">
+        <v>-8</v>
+      </c>
+      <c r="J239">
+        <v>-10</v>
+      </c>
+      <c r="K239">
+        <v>-11</v>
+      </c>
+      <c r="L239">
+        <v>55</v>
+      </c>
+      <c r="M239">
+        <v>26</v>
+      </c>
+      <c r="N239">
+        <v>15</v>
+      </c>
+      <c r="O239">
+        <v>1029</v>
+      </c>
+      <c r="P239">
+        <v>1027</v>
+      </c>
+      <c r="Q239">
+        <v>1026</v>
+      </c>
+      <c r="R239">
+        <v>10</v>
+      </c>
+      <c r="S239">
+        <v>10</v>
+      </c>
+      <c r="T239">
+        <v>10</v>
+      </c>
+      <c r="U239">
+        <v>8</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>6</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14611,8 +18761,56 @@
       <c r="E240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240">
+        <v>21</v>
+      </c>
+      <c r="G240">
+        <v>9</v>
+      </c>
+      <c r="H240">
+        <v>-2</v>
+      </c>
+      <c r="I240">
+        <v>-6</v>
+      </c>
+      <c r="J240">
+        <v>-8</v>
+      </c>
+      <c r="K240">
+        <v>-11</v>
+      </c>
+      <c r="L240">
+        <v>51</v>
+      </c>
+      <c r="M240">
+        <v>24</v>
+      </c>
+      <c r="N240">
+        <v>14</v>
+      </c>
+      <c r="O240">
+        <v>1028</v>
+      </c>
+      <c r="P240">
+        <v>1027</v>
+      </c>
+      <c r="Q240">
+        <v>1025</v>
+      </c>
+      <c r="U240">
+        <v>26</v>
+      </c>
+      <c r="V240">
+        <v>6</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14628,8 +18826,68 @@
       <c r="E241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241">
+        <v>20</v>
+      </c>
+      <c r="G241">
+        <v>11</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
+        <v>-6</v>
+      </c>
+      <c r="J241">
+        <v>-7</v>
+      </c>
+      <c r="K241">
+        <v>-10</v>
+      </c>
+      <c r="L241">
+        <v>52</v>
+      </c>
+      <c r="M241">
+        <v>26</v>
+      </c>
+      <c r="N241">
+        <v>12</v>
+      </c>
+      <c r="O241">
+        <v>1026</v>
+      </c>
+      <c r="P241">
+        <v>1024</v>
+      </c>
+      <c r="Q241">
+        <v>1022</v>
+      </c>
+      <c r="R241">
+        <v>10</v>
+      </c>
+      <c r="S241">
+        <v>10</v>
+      </c>
+      <c r="T241">
+        <v>10</v>
+      </c>
+      <c r="U241">
+        <v>11</v>
+      </c>
+      <c r="V241">
+        <v>3</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>6</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14645,8 +18903,56 @@
       <c r="E242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242">
+        <v>20</v>
+      </c>
+      <c r="G242">
+        <v>10</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>-7</v>
+      </c>
+      <c r="J242">
+        <v>-9</v>
+      </c>
+      <c r="K242">
+        <v>-11</v>
+      </c>
+      <c r="L242">
+        <v>44</v>
+      </c>
+      <c r="M242">
+        <v>23</v>
+      </c>
+      <c r="N242">
+        <v>12</v>
+      </c>
+      <c r="O242">
+        <v>1021</v>
+      </c>
+      <c r="P242">
+        <v>1019</v>
+      </c>
+      <c r="Q242">
+        <v>1018</v>
+      </c>
+      <c r="U242">
+        <v>19</v>
+      </c>
+      <c r="V242">
+        <v>6</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14662,8 +18968,68 @@
       <c r="E243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243">
+        <v>20</v>
+      </c>
+      <c r="G243">
+        <v>18</v>
+      </c>
+      <c r="H243">
+        <v>15</v>
+      </c>
+      <c r="I243">
+        <v>-6</v>
+      </c>
+      <c r="J243">
+        <v>-6</v>
+      </c>
+      <c r="K243">
+        <v>-7</v>
+      </c>
+      <c r="L243">
+        <v>23</v>
+      </c>
+      <c r="M243">
+        <v>19</v>
+      </c>
+      <c r="N243">
+        <v>17</v>
+      </c>
+      <c r="O243">
+        <v>1019</v>
+      </c>
+      <c r="P243">
+        <v>1018</v>
+      </c>
+      <c r="Q243">
+        <v>1018</v>
+      </c>
+      <c r="R243">
+        <v>10</v>
+      </c>
+      <c r="S243">
+        <v>9</v>
+      </c>
+      <c r="T243">
+        <v>5</v>
+      </c>
+      <c r="U243">
+        <v>39</v>
+      </c>
+      <c r="V243">
+        <v>14</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>6</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14679,8 +19045,71 @@
       <c r="E244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244">
+        <v>18</v>
+      </c>
+      <c r="G244">
+        <v>16</v>
+      </c>
+      <c r="H244">
+        <v>13</v>
+      </c>
+      <c r="I244">
+        <v>-4</v>
+      </c>
+      <c r="J244">
+        <v>-5</v>
+      </c>
+      <c r="K244">
+        <v>-6</v>
+      </c>
+      <c r="L244">
+        <v>26</v>
+      </c>
+      <c r="M244">
+        <v>24</v>
+      </c>
+      <c r="N244">
+        <v>21</v>
+      </c>
+      <c r="O244">
+        <v>1023</v>
+      </c>
+      <c r="P244">
+        <v>1022</v>
+      </c>
+      <c r="Q244">
+        <v>1022</v>
+      </c>
+      <c r="R244">
+        <v>10</v>
+      </c>
+      <c r="S244">
+        <v>10</v>
+      </c>
+      <c r="T244">
+        <v>10</v>
+      </c>
+      <c r="U244">
+        <v>42</v>
+      </c>
+      <c r="V244">
+        <v>16</v>
+      </c>
+      <c r="W244">
+        <v>63</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>4</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14696,8 +19125,56 @@
       <c r="E245">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245">
+        <v>12</v>
+      </c>
+      <c r="G245">
+        <v>6</v>
+      </c>
+      <c r="H245">
+        <v>-1</v>
+      </c>
+      <c r="I245">
+        <v>-5</v>
+      </c>
+      <c r="J245">
+        <v>-6</v>
+      </c>
+      <c r="K245">
+        <v>-7</v>
+      </c>
+      <c r="L245">
+        <v>64</v>
+      </c>
+      <c r="M245">
+        <v>37</v>
+      </c>
+      <c r="N245">
+        <v>28</v>
+      </c>
+      <c r="O245">
+        <v>1026</v>
+      </c>
+      <c r="P245">
+        <v>1025</v>
+      </c>
+      <c r="Q245">
+        <v>1023</v>
+      </c>
+      <c r="U245">
+        <v>14</v>
+      </c>
+      <c r="V245">
+        <v>5</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14713,8 +19190,68 @@
       <c r="E246">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246">
+        <v>5</v>
+      </c>
+      <c r="G246">
+        <v>-1</v>
+      </c>
+      <c r="H246">
+        <v>-6</v>
+      </c>
+      <c r="I246">
+        <v>-5</v>
+      </c>
+      <c r="J246">
+        <v>-7</v>
+      </c>
+      <c r="K246">
+        <v>-10</v>
+      </c>
+      <c r="L246">
+        <v>74</v>
+      </c>
+      <c r="M246">
+        <v>54</v>
+      </c>
+      <c r="N246">
+        <v>45</v>
+      </c>
+      <c r="O246">
+        <v>1028</v>
+      </c>
+      <c r="P246">
+        <v>1027</v>
+      </c>
+      <c r="Q246">
+        <v>1026</v>
+      </c>
+      <c r="R246">
+        <v>10</v>
+      </c>
+      <c r="S246">
+        <v>10</v>
+      </c>
+      <c r="T246">
+        <v>10</v>
+      </c>
+      <c r="U246">
+        <v>19</v>
+      </c>
+      <c r="V246">
+        <v>5</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>6</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14730,8 +19267,68 @@
       <c r="E247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247">
+        <v>5</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>-3</v>
+      </c>
+      <c r="I247">
+        <v>-8</v>
+      </c>
+      <c r="J247">
+        <v>-9</v>
+      </c>
+      <c r="K247">
+        <v>-10</v>
+      </c>
+      <c r="L247">
+        <v>59</v>
+      </c>
+      <c r="M247">
+        <v>46</v>
+      </c>
+      <c r="N247">
+        <v>36</v>
+      </c>
+      <c r="O247">
+        <v>1030</v>
+      </c>
+      <c r="P247">
+        <v>1027</v>
+      </c>
+      <c r="Q247">
+        <v>1025</v>
+      </c>
+      <c r="R247">
+        <v>10</v>
+      </c>
+      <c r="S247">
+        <v>10</v>
+      </c>
+      <c r="T247">
+        <v>10</v>
+      </c>
+      <c r="U247">
+        <v>19</v>
+      </c>
+      <c r="V247">
+        <v>3</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>6</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14747,8 +19344,71 @@
       <c r="E248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="G248">
+        <v>-1</v>
+      </c>
+      <c r="H248">
+        <v>-4</v>
+      </c>
+      <c r="I248">
+        <v>-7</v>
+      </c>
+      <c r="J248">
+        <v>-9</v>
+      </c>
+      <c r="K248">
+        <v>-10</v>
+      </c>
+      <c r="L248">
+        <v>80</v>
+      </c>
+      <c r="M248">
+        <v>58</v>
+      </c>
+      <c r="N248">
+        <v>44</v>
+      </c>
+      <c r="O248">
+        <v>1028</v>
+      </c>
+      <c r="P248">
+        <v>1027</v>
+      </c>
+      <c r="Q248">
+        <v>1025</v>
+      </c>
+      <c r="R248">
+        <v>10</v>
+      </c>
+      <c r="S248">
+        <v>9</v>
+      </c>
+      <c r="T248">
+        <v>4</v>
+      </c>
+      <c r="U248">
+        <v>35</v>
+      </c>
+      <c r="V248">
+        <v>5</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>7</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14764,8 +19424,68 @@
       <c r="E249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249">
+        <v>-1</v>
+      </c>
+      <c r="G249">
+        <v>-8</v>
+      </c>
+      <c r="H249">
+        <v>-15</v>
+      </c>
+      <c r="I249">
+        <v>-17</v>
+      </c>
+      <c r="J249">
+        <v>-18</v>
+      </c>
+      <c r="K249">
+        <v>-19</v>
+      </c>
+      <c r="L249">
+        <v>72</v>
+      </c>
+      <c r="M249">
+        <v>40</v>
+      </c>
+      <c r="N249">
+        <v>27</v>
+      </c>
+      <c r="O249">
+        <v>1029</v>
+      </c>
+      <c r="P249">
+        <v>1028</v>
+      </c>
+      <c r="Q249">
+        <v>1027</v>
+      </c>
+      <c r="R249">
+        <v>10</v>
+      </c>
+      <c r="S249">
+        <v>10</v>
+      </c>
+      <c r="T249">
+        <v>10</v>
+      </c>
+      <c r="U249">
+        <v>14</v>
+      </c>
+      <c r="V249">
+        <v>3</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>1</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14781,8 +19501,56 @@
       <c r="E250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250">
+        <v>-1</v>
+      </c>
+      <c r="G250">
+        <v>-10</v>
+      </c>
+      <c r="H250">
+        <v>-18</v>
+      </c>
+      <c r="I250">
+        <v>-18</v>
+      </c>
+      <c r="J250">
+        <v>-20</v>
+      </c>
+      <c r="K250">
+        <v>-22</v>
+      </c>
+      <c r="L250">
+        <v>72</v>
+      </c>
+      <c r="M250">
+        <v>40</v>
+      </c>
+      <c r="N250">
+        <v>21</v>
+      </c>
+      <c r="O250">
+        <v>1029</v>
+      </c>
+      <c r="P250">
+        <v>1027</v>
+      </c>
+      <c r="Q250">
+        <v>1025</v>
+      </c>
+      <c r="U250">
+        <v>8</v>
+      </c>
+      <c r="V250">
+        <v>2</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14798,8 +19566,56 @@
       <c r="E251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251">
+        <v>-7</v>
+      </c>
+      <c r="H251">
+        <v>-17</v>
+      </c>
+      <c r="I251">
+        <v>-19</v>
+      </c>
+      <c r="J251">
+        <v>-21</v>
+      </c>
+      <c r="K251">
+        <v>-23</v>
+      </c>
+      <c r="L251">
+        <v>61</v>
+      </c>
+      <c r="M251">
+        <v>30</v>
+      </c>
+      <c r="N251">
+        <v>14</v>
+      </c>
+      <c r="O251">
+        <v>1026</v>
+      </c>
+      <c r="P251">
+        <v>1025</v>
+      </c>
+      <c r="Q251">
+        <v>1023</v>
+      </c>
+      <c r="U251">
+        <v>8</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14815,8 +19631,68 @@
       <c r="E252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252">
+        <v>9</v>
+      </c>
+      <c r="G252">
+        <v>-3</v>
+      </c>
+      <c r="H252">
+        <v>-15</v>
+      </c>
+      <c r="I252">
+        <v>-15</v>
+      </c>
+      <c r="J252">
+        <v>-19</v>
+      </c>
+      <c r="K252">
+        <v>-25</v>
+      </c>
+      <c r="L252">
+        <v>47</v>
+      </c>
+      <c r="M252">
+        <v>27</v>
+      </c>
+      <c r="N252">
+        <v>17</v>
+      </c>
+      <c r="O252">
+        <v>1025</v>
+      </c>
+      <c r="P252">
+        <v>1023</v>
+      </c>
+      <c r="Q252">
+        <v>1021</v>
+      </c>
+      <c r="R252">
+        <v>10</v>
+      </c>
+      <c r="S252">
+        <v>10</v>
+      </c>
+      <c r="T252">
+        <v>10</v>
+      </c>
+      <c r="U252">
+        <v>8</v>
+      </c>
+      <c r="V252">
+        <v>3</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>1</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14832,8 +19708,68 @@
       <c r="E253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253">
+        <v>9</v>
+      </c>
+      <c r="G253">
+        <v>-1</v>
+      </c>
+      <c r="H253">
+        <v>-11</v>
+      </c>
+      <c r="I253">
+        <v>-8</v>
+      </c>
+      <c r="J253">
+        <v>-14</v>
+      </c>
+      <c r="K253">
+        <v>-20</v>
+      </c>
+      <c r="L253">
+        <v>53</v>
+      </c>
+      <c r="M253">
+        <v>35</v>
+      </c>
+      <c r="N253">
+        <v>25</v>
+      </c>
+      <c r="O253">
+        <v>1025</v>
+      </c>
+      <c r="P253">
+        <v>1024</v>
+      </c>
+      <c r="Q253">
+        <v>1021</v>
+      </c>
+      <c r="R253">
+        <v>10</v>
+      </c>
+      <c r="S253">
+        <v>10</v>
+      </c>
+      <c r="T253">
+        <v>10</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>1</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14849,8 +19785,68 @@
       <c r="E254">
         <v>5</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254">
+        <v>12</v>
+      </c>
+      <c r="G254">
+        <v>2</v>
+      </c>
+      <c r="H254">
+        <v>-8</v>
+      </c>
+      <c r="I254">
+        <v>-5</v>
+      </c>
+      <c r="J254">
+        <v>-9</v>
+      </c>
+      <c r="K254">
+        <v>-14</v>
+      </c>
+      <c r="L254">
+        <v>63</v>
+      </c>
+      <c r="M254">
+        <v>39</v>
+      </c>
+      <c r="N254">
+        <v>18</v>
+      </c>
+      <c r="O254">
+        <v>1024</v>
+      </c>
+      <c r="P254">
+        <v>1023</v>
+      </c>
+      <c r="Q254">
+        <v>1021</v>
+      </c>
+      <c r="R254">
+        <v>10</v>
+      </c>
+      <c r="S254">
+        <v>10</v>
+      </c>
+      <c r="T254">
+        <v>10</v>
+      </c>
+      <c r="U254">
+        <v>8</v>
+      </c>
+      <c r="V254">
+        <v>2</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>1</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14866,8 +19862,56 @@
       <c r="E255">
         <v>6</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255">
+        <v>13</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+      <c r="H255">
+        <v>-6</v>
+      </c>
+      <c r="I255">
+        <v>-9</v>
+      </c>
+      <c r="J255">
+        <v>-12</v>
+      </c>
+      <c r="K255">
+        <v>-17</v>
+      </c>
+      <c r="L255">
+        <v>58</v>
+      </c>
+      <c r="M255">
+        <v>28</v>
+      </c>
+      <c r="N255">
+        <v>11</v>
+      </c>
+      <c r="O255">
+        <v>1024</v>
+      </c>
+      <c r="P255">
+        <v>1023</v>
+      </c>
+      <c r="Q255">
+        <v>1022</v>
+      </c>
+      <c r="U255">
+        <v>8</v>
+      </c>
+      <c r="V255">
+        <v>2</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14883,8 +19927,56 @@
       <c r="E256">
         <v>5</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256">
+        <v>13</v>
+      </c>
+      <c r="G256">
+        <v>4</v>
+      </c>
+      <c r="H256">
+        <v>-5</v>
+      </c>
+      <c r="I256">
+        <v>-8</v>
+      </c>
+      <c r="J256">
+        <v>-13</v>
+      </c>
+      <c r="K256">
+        <v>-17</v>
+      </c>
+      <c r="L256">
+        <v>40</v>
+      </c>
+      <c r="M256">
+        <v>27</v>
+      </c>
+      <c r="N256">
+        <v>17</v>
+      </c>
+      <c r="O256">
+        <v>1024</v>
+      </c>
+      <c r="P256">
+        <v>1022</v>
+      </c>
+      <c r="Q256">
+        <v>1020</v>
+      </c>
+      <c r="U256">
+        <v>11</v>
+      </c>
+      <c r="V256">
+        <v>3</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14900,8 +19992,71 @@
       <c r="E257">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257">
+        <v>13</v>
+      </c>
+      <c r="G257">
+        <v>10</v>
+      </c>
+      <c r="H257">
+        <v>7</v>
+      </c>
+      <c r="I257">
+        <v>4</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257">
+        <v>-2</v>
+      </c>
+      <c r="L257">
+        <v>62</v>
+      </c>
+      <c r="M257">
+        <v>56</v>
+      </c>
+      <c r="N257">
+        <v>50</v>
+      </c>
+      <c r="O257">
+        <v>1018</v>
+      </c>
+      <c r="P257">
+        <v>1017</v>
+      </c>
+      <c r="Q257">
+        <v>1016</v>
+      </c>
+      <c r="R257">
+        <v>10</v>
+      </c>
+      <c r="S257">
+        <v>10</v>
+      </c>
+      <c r="T257">
+        <v>8</v>
+      </c>
+      <c r="U257">
+        <v>26</v>
+      </c>
+      <c r="V257">
+        <v>8</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>6</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14917,8 +20072,71 @@
       <c r="E258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258">
+        <v>14</v>
+      </c>
+      <c r="G258">
+        <v>11</v>
+      </c>
+      <c r="H258">
+        <v>8</v>
+      </c>
+      <c r="I258">
+        <v>8</v>
+      </c>
+      <c r="J258">
+        <v>5</v>
+      </c>
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="L258">
+        <v>87</v>
+      </c>
+      <c r="M258">
+        <v>68</v>
+      </c>
+      <c r="N258">
+        <v>51</v>
+      </c>
+      <c r="O258">
+        <v>1014</v>
+      </c>
+      <c r="P258">
+        <v>1012</v>
+      </c>
+      <c r="Q258">
+        <v>1011</v>
+      </c>
+      <c r="R258">
+        <v>10</v>
+      </c>
+      <c r="S258">
+        <v>7</v>
+      </c>
+      <c r="T258">
+        <v>4</v>
+      </c>
+      <c r="U258">
+        <v>39</v>
+      </c>
+      <c r="V258">
+        <v>26</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>7</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14934,8 +20152,68 @@
       <c r="E259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259">
+        <v>11</v>
+      </c>
+      <c r="G259">
+        <v>8</v>
+      </c>
+      <c r="H259">
+        <v>6</v>
+      </c>
+      <c r="I259">
+        <v>-3</v>
+      </c>
+      <c r="J259">
+        <v>-5</v>
+      </c>
+      <c r="K259">
+        <v>-6</v>
+      </c>
+      <c r="L259">
+        <v>49</v>
+      </c>
+      <c r="M259">
+        <v>38</v>
+      </c>
+      <c r="N259">
+        <v>32</v>
+      </c>
+      <c r="O259">
+        <v>1024</v>
+      </c>
+      <c r="P259">
+        <v>1023</v>
+      </c>
+      <c r="Q259">
+        <v>1021</v>
+      </c>
+      <c r="R259">
+        <v>10</v>
+      </c>
+      <c r="S259">
+        <v>10</v>
+      </c>
+      <c r="T259">
+        <v>10</v>
+      </c>
+      <c r="U259">
+        <v>26</v>
+      </c>
+      <c r="V259">
+        <v>18</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>1</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14951,8 +20229,68 @@
       <c r="E260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260">
+        <v>15</v>
+      </c>
+      <c r="G260">
+        <v>4</v>
+      </c>
+      <c r="H260">
+        <v>-6</v>
+      </c>
+      <c r="I260">
+        <v>-3</v>
+      </c>
+      <c r="J260">
+        <v>-8</v>
+      </c>
+      <c r="K260">
+        <v>-14</v>
+      </c>
+      <c r="L260">
+        <v>93</v>
+      </c>
+      <c r="M260">
+        <v>48</v>
+      </c>
+      <c r="N260">
+        <v>13</v>
+      </c>
+      <c r="O260">
+        <v>1028</v>
+      </c>
+      <c r="P260">
+        <v>1026</v>
+      </c>
+      <c r="Q260">
+        <v>1025</v>
+      </c>
+      <c r="R260">
+        <v>10</v>
+      </c>
+      <c r="S260">
+        <v>10</v>
+      </c>
+      <c r="T260">
+        <v>10</v>
+      </c>
+      <c r="U260">
+        <v>29</v>
+      </c>
+      <c r="V260">
+        <v>5</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>1</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14968,8 +20306,68 @@
       <c r="E261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261">
+        <v>15</v>
+      </c>
+      <c r="G261">
+        <v>8</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261">
+        <v>-2</v>
+      </c>
+      <c r="K261">
+        <v>-6</v>
+      </c>
+      <c r="L261">
+        <v>65</v>
+      </c>
+      <c r="M261">
+        <v>52</v>
+      </c>
+      <c r="N261">
+        <v>41</v>
+      </c>
+      <c r="O261">
+        <v>1024</v>
+      </c>
+      <c r="P261">
+        <v>1022</v>
+      </c>
+      <c r="Q261">
+        <v>1020</v>
+      </c>
+      <c r="R261">
+        <v>10</v>
+      </c>
+      <c r="S261">
+        <v>10</v>
+      </c>
+      <c r="T261">
+        <v>10</v>
+      </c>
+      <c r="U261">
+        <v>11</v>
+      </c>
+      <c r="V261">
+        <v>6</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>4</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14985,8 +20383,68 @@
       <c r="E262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262">
+        <v>12</v>
+      </c>
+      <c r="G262">
+        <v>9</v>
+      </c>
+      <c r="H262">
+        <v>7</v>
+      </c>
+      <c r="I262">
+        <v>4</v>
+      </c>
+      <c r="J262">
+        <v>-1</v>
+      </c>
+      <c r="K262">
+        <v>-4</v>
+      </c>
+      <c r="L262">
+        <v>81</v>
+      </c>
+      <c r="M262">
+        <v>51</v>
+      </c>
+      <c r="N262">
+        <v>37</v>
+      </c>
+      <c r="O262">
+        <v>1018</v>
+      </c>
+      <c r="P262">
+        <v>1017</v>
+      </c>
+      <c r="Q262">
+        <v>1016</v>
+      </c>
+      <c r="R262">
+        <v>10</v>
+      </c>
+      <c r="S262">
+        <v>10</v>
+      </c>
+      <c r="T262">
+        <v>10</v>
+      </c>
+      <c r="U262">
+        <v>42</v>
+      </c>
+      <c r="V262">
+        <v>19</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>5</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>95</v>
       </c>
@@ -15002,8 +20460,56 @@
       <c r="E263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263">
+        <v>9</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>-9</v>
+      </c>
+      <c r="I263">
+        <v>-6</v>
+      </c>
+      <c r="J263">
+        <v>-8</v>
+      </c>
+      <c r="K263">
+        <v>-13</v>
+      </c>
+      <c r="L263">
+        <v>86</v>
+      </c>
+      <c r="M263">
+        <v>57</v>
+      </c>
+      <c r="N263">
+        <v>20</v>
+      </c>
+      <c r="O263">
+        <v>1024</v>
+      </c>
+      <c r="P263">
+        <v>1022</v>
+      </c>
+      <c r="Q263">
+        <v>1020</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+      <c r="V263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>95</v>
       </c>
@@ -15019,8 +20525,68 @@
       <c r="E264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>-3</v>
+      </c>
+      <c r="I264">
+        <v>-11</v>
+      </c>
+      <c r="J264">
+        <v>-13</v>
+      </c>
+      <c r="K264">
+        <v>-15</v>
+      </c>
+      <c r="L264">
+        <v>51</v>
+      </c>
+      <c r="M264">
+        <v>28</v>
+      </c>
+      <c r="N264">
+        <v>18</v>
+      </c>
+      <c r="O264">
+        <v>1021</v>
+      </c>
+      <c r="P264">
+        <v>1019</v>
+      </c>
+      <c r="Q264">
+        <v>1018</v>
+      </c>
+      <c r="R264">
+        <v>10</v>
+      </c>
+      <c r="S264">
+        <v>10</v>
+      </c>
+      <c r="T264">
+        <v>10</v>
+      </c>
+      <c r="U264">
+        <v>14</v>
+      </c>
+      <c r="V264">
+        <v>6</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>7</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>95</v>
       </c>
@@ -15036,8 +20602,68 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265">
+        <v>5</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>-4</v>
+      </c>
+      <c r="I265">
+        <v>-4</v>
+      </c>
+      <c r="J265">
+        <v>-6</v>
+      </c>
+      <c r="K265">
+        <v>-6</v>
+      </c>
+      <c r="L265">
+        <v>86</v>
+      </c>
+      <c r="M265">
+        <v>65</v>
+      </c>
+      <c r="N265">
+        <v>45</v>
+      </c>
+      <c r="O265">
+        <v>1020</v>
+      </c>
+      <c r="P265">
+        <v>1018</v>
+      </c>
+      <c r="Q265">
+        <v>1016</v>
+      </c>
+      <c r="R265">
+        <v>10</v>
+      </c>
+      <c r="S265">
+        <v>10</v>
+      </c>
+      <c r="T265">
+        <v>10</v>
+      </c>
+      <c r="U265">
+        <v>8</v>
+      </c>
+      <c r="V265">
+        <v>3</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>2</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>95</v>
       </c>
@@ -15053,8 +20679,56 @@
       <c r="E266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266">
+        <v>10</v>
+      </c>
+      <c r="G266">
+        <v>2</v>
+      </c>
+      <c r="H266">
+        <v>-6</v>
+      </c>
+      <c r="I266">
+        <v>-10</v>
+      </c>
+      <c r="J266">
+        <v>-12</v>
+      </c>
+      <c r="K266">
+        <v>-14</v>
+      </c>
+      <c r="L266">
+        <v>68</v>
+      </c>
+      <c r="M266">
+        <v>38</v>
+      </c>
+      <c r="N266">
+        <v>22</v>
+      </c>
+      <c r="O266">
+        <v>1017</v>
+      </c>
+      <c r="P266">
+        <v>1016</v>
+      </c>
+      <c r="Q266">
+        <v>1014</v>
+      </c>
+      <c r="U266">
+        <v>14</v>
+      </c>
+      <c r="V266">
+        <v>8</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>95</v>
       </c>
@@ -15070,8 +20744,68 @@
       <c r="E267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267">
+        <v>8</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+      <c r="I267">
+        <v>-6</v>
+      </c>
+      <c r="J267">
+        <v>-9</v>
+      </c>
+      <c r="K267">
+        <v>-13</v>
+      </c>
+      <c r="L267">
+        <v>52</v>
+      </c>
+      <c r="M267">
+        <v>37</v>
+      </c>
+      <c r="N267">
+        <v>23</v>
+      </c>
+      <c r="O267">
+        <v>1015</v>
+      </c>
+      <c r="P267">
+        <v>1014</v>
+      </c>
+      <c r="Q267">
+        <v>1012</v>
+      </c>
+      <c r="R267">
+        <v>10</v>
+      </c>
+      <c r="S267">
+        <v>10</v>
+      </c>
+      <c r="T267">
+        <v>10</v>
+      </c>
+      <c r="U267">
+        <v>35</v>
+      </c>
+      <c r="V267">
+        <v>18</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>3</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>95</v>
       </c>
@@ -15087,8 +20821,56 @@
       <c r="E268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268">
+        <v>9</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>-7</v>
+      </c>
+      <c r="I268">
+        <v>-8</v>
+      </c>
+      <c r="J268">
+        <v>-9</v>
+      </c>
+      <c r="K268">
+        <v>-11</v>
+      </c>
+      <c r="L268">
+        <v>74</v>
+      </c>
+      <c r="M268">
+        <v>39</v>
+      </c>
+      <c r="N268">
+        <v>25</v>
+      </c>
+      <c r="O268">
+        <v>1022</v>
+      </c>
+      <c r="P268">
+        <v>1020</v>
+      </c>
+      <c r="Q268">
+        <v>1018</v>
+      </c>
+      <c r="U268">
+        <v>11</v>
+      </c>
+      <c r="V268">
+        <v>10</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>95</v>
       </c>
@@ -15104,8 +20886,68 @@
       <c r="E269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269">
+        <v>10</v>
+      </c>
+      <c r="G269">
+        <v>3</v>
+      </c>
+      <c r="H269">
+        <v>-4</v>
+      </c>
+      <c r="I269">
+        <v>-5</v>
+      </c>
+      <c r="J269">
+        <v>-7</v>
+      </c>
+      <c r="K269">
+        <v>-8</v>
+      </c>
+      <c r="L269">
+        <v>74</v>
+      </c>
+      <c r="M269">
+        <v>51</v>
+      </c>
+      <c r="N269">
+        <v>32</v>
+      </c>
+      <c r="O269">
+        <v>1018</v>
+      </c>
+      <c r="P269">
+        <v>1016</v>
+      </c>
+      <c r="Q269">
+        <v>1014</v>
+      </c>
+      <c r="R269">
+        <v>10</v>
+      </c>
+      <c r="S269">
+        <v>10</v>
+      </c>
+      <c r="T269">
+        <v>10</v>
+      </c>
+      <c r="U269">
+        <v>23</v>
+      </c>
+      <c r="V269">
+        <v>6</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <v>6</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>95</v>
       </c>
@@ -15121,8 +20963,68 @@
       <c r="E270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270">
+        <v>11</v>
+      </c>
+      <c r="G270">
+        <v>6</v>
+      </c>
+      <c r="H270">
+        <v>2</v>
+      </c>
+      <c r="I270">
+        <v>-8</v>
+      </c>
+      <c r="J270">
+        <v>-9</v>
+      </c>
+      <c r="K270">
+        <v>-10</v>
+      </c>
+      <c r="L270">
+        <v>44</v>
+      </c>
+      <c r="M270">
+        <v>32</v>
+      </c>
+      <c r="N270">
+        <v>24</v>
+      </c>
+      <c r="O270">
+        <v>1014</v>
+      </c>
+      <c r="P270">
+        <v>1013</v>
+      </c>
+      <c r="Q270">
+        <v>1011</v>
+      </c>
+      <c r="R270">
+        <v>10</v>
+      </c>
+      <c r="S270">
+        <v>10</v>
+      </c>
+      <c r="T270">
+        <v>10</v>
+      </c>
+      <c r="U270">
+        <v>32</v>
+      </c>
+      <c r="V270">
+        <v>13</v>
+      </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
+      <c r="Y270">
+        <v>2</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>95</v>
       </c>
@@ -15138,8 +21040,71 @@
       <c r="E271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271">
+        <v>2</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>-2</v>
+      </c>
+      <c r="K271">
+        <v>-8</v>
+      </c>
+      <c r="L271">
+        <v>100</v>
+      </c>
+      <c r="M271">
+        <v>72</v>
+      </c>
+      <c r="N271">
+        <v>42</v>
+      </c>
+      <c r="O271">
+        <v>1012</v>
+      </c>
+      <c r="P271">
+        <v>1010</v>
+      </c>
+      <c r="Q271">
+        <v>1007</v>
+      </c>
+      <c r="R271">
+        <v>10</v>
+      </c>
+      <c r="S271">
+        <v>7</v>
+      </c>
+      <c r="T271">
+        <v>1</v>
+      </c>
+      <c r="U271">
+        <v>32</v>
+      </c>
+      <c r="V271">
+        <v>23</v>
+      </c>
+      <c r="X271">
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <v>5</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>95</v>
       </c>
@@ -15155,8 +21120,56 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272">
+        <v>6</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>-6</v>
+      </c>
+      <c r="I272">
+        <v>-9</v>
+      </c>
+      <c r="J272">
+        <v>-11</v>
+      </c>
+      <c r="K272">
+        <v>-12</v>
+      </c>
+      <c r="L272">
+        <v>68</v>
+      </c>
+      <c r="M272">
+        <v>45</v>
+      </c>
+      <c r="N272">
+        <v>31</v>
+      </c>
+      <c r="O272">
+        <v>1019</v>
+      </c>
+      <c r="P272">
+        <v>1018</v>
+      </c>
+      <c r="Q272">
+        <v>1017</v>
+      </c>
+      <c r="U272">
+        <v>23</v>
+      </c>
+      <c r="V272">
+        <v>11</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>95</v>
       </c>
@@ -15172,8 +21185,68 @@
       <c r="E273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273">
+        <v>7</v>
+      </c>
+      <c r="G273">
+        <v>2</v>
+      </c>
+      <c r="H273">
+        <v>-2</v>
+      </c>
+      <c r="I273">
+        <v>-8</v>
+      </c>
+      <c r="J273">
+        <v>-12</v>
+      </c>
+      <c r="K273">
+        <v>-16</v>
+      </c>
+      <c r="L273">
+        <v>55</v>
+      </c>
+      <c r="M273">
+        <v>35</v>
+      </c>
+      <c r="N273">
+        <v>18</v>
+      </c>
+      <c r="O273">
+        <v>1021</v>
+      </c>
+      <c r="P273">
+        <v>1020</v>
+      </c>
+      <c r="Q273">
+        <v>1019</v>
+      </c>
+      <c r="R273">
+        <v>10</v>
+      </c>
+      <c r="S273">
+        <v>10</v>
+      </c>
+      <c r="T273">
+        <v>10</v>
+      </c>
+      <c r="U273">
+        <v>23</v>
+      </c>
+      <c r="V273">
+        <v>10</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>2</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>95</v>
       </c>
@@ -15189,8 +21262,68 @@
       <c r="E274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="G274">
+        <v>-1</v>
+      </c>
+      <c r="H274">
+        <v>-6</v>
+      </c>
+      <c r="I274">
+        <v>-7</v>
+      </c>
+      <c r="J274">
+        <v>-8</v>
+      </c>
+      <c r="K274">
+        <v>-12</v>
+      </c>
+      <c r="L274">
+        <v>80</v>
+      </c>
+      <c r="M274">
+        <v>52</v>
+      </c>
+      <c r="N274">
+        <v>29</v>
+      </c>
+      <c r="O274">
+        <v>1023</v>
+      </c>
+      <c r="P274">
+        <v>1022</v>
+      </c>
+      <c r="Q274">
+        <v>1020</v>
+      </c>
+      <c r="R274">
+        <v>10</v>
+      </c>
+      <c r="S274">
+        <v>10</v>
+      </c>
+      <c r="T274">
+        <v>10</v>
+      </c>
+      <c r="U274">
+        <v>14</v>
+      </c>
+      <c r="V274">
+        <v>8</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>5</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>95</v>
       </c>
@@ -15206,8 +21339,68 @@
       <c r="E275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275">
+        <v>7</v>
+      </c>
+      <c r="G275">
+        <v>-1</v>
+      </c>
+      <c r="H275">
+        <v>-8</v>
+      </c>
+      <c r="I275">
+        <v>-6</v>
+      </c>
+      <c r="J275">
+        <v>-8</v>
+      </c>
+      <c r="K275">
+        <v>-10</v>
+      </c>
+      <c r="L275">
+        <v>86</v>
+      </c>
+      <c r="M275">
+        <v>56</v>
+      </c>
+      <c r="N275">
+        <v>37</v>
+      </c>
+      <c r="O275">
+        <v>1023</v>
+      </c>
+      <c r="P275">
+        <v>1021</v>
+      </c>
+      <c r="Q275">
+        <v>1018</v>
+      </c>
+      <c r="R275">
+        <v>10</v>
+      </c>
+      <c r="S275">
+        <v>10</v>
+      </c>
+      <c r="T275">
+        <v>10</v>
+      </c>
+      <c r="U275">
+        <v>26</v>
+      </c>
+      <c r="V275">
+        <v>10</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>1</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>95</v>
       </c>
@@ -15223,8 +21416,68 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276">
+        <v>6</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>-3</v>
+      </c>
+      <c r="I276">
+        <v>-5</v>
+      </c>
+      <c r="J276">
+        <v>-7</v>
+      </c>
+      <c r="K276">
+        <v>-8</v>
+      </c>
+      <c r="L276">
+        <v>80</v>
+      </c>
+      <c r="M276">
+        <v>51</v>
+      </c>
+      <c r="N276">
+        <v>36</v>
+      </c>
+      <c r="O276">
+        <v>1018</v>
+      </c>
+      <c r="P276">
+        <v>1016</v>
+      </c>
+      <c r="Q276">
+        <v>1015</v>
+      </c>
+      <c r="R276">
+        <v>10</v>
+      </c>
+      <c r="S276">
+        <v>10</v>
+      </c>
+      <c r="T276">
+        <v>10</v>
+      </c>
+      <c r="U276">
+        <v>19</v>
+      </c>
+      <c r="V276">
+        <v>10</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>2</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>95</v>
       </c>
@@ -15240,8 +21493,56 @@
       <c r="E277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277">
+        <v>7</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>-7</v>
+      </c>
+      <c r="I277">
+        <v>-7</v>
+      </c>
+      <c r="J277">
+        <v>-10</v>
+      </c>
+      <c r="K277">
+        <v>-13</v>
+      </c>
+      <c r="L277">
+        <v>80</v>
+      </c>
+      <c r="M277">
+        <v>47</v>
+      </c>
+      <c r="N277">
+        <v>25</v>
+      </c>
+      <c r="O277">
+        <v>1022</v>
+      </c>
+      <c r="P277">
+        <v>1021</v>
+      </c>
+      <c r="Q277">
+        <v>1020</v>
+      </c>
+      <c r="U277">
+        <v>11</v>
+      </c>
+      <c r="V277">
+        <v>6</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>95</v>
       </c>
@@ -15257,8 +21558,68 @@
       <c r="E278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278">
+        <v>8</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>-5</v>
+      </c>
+      <c r="I278">
+        <v>-6</v>
+      </c>
+      <c r="J278">
+        <v>-8</v>
+      </c>
+      <c r="K278">
+        <v>-9</v>
+      </c>
+      <c r="L278">
+        <v>80</v>
+      </c>
+      <c r="M278">
+        <v>53</v>
+      </c>
+      <c r="N278">
+        <v>29</v>
+      </c>
+      <c r="O278">
+        <v>1027</v>
+      </c>
+      <c r="P278">
+        <v>1025</v>
+      </c>
+      <c r="Q278">
+        <v>1023</v>
+      </c>
+      <c r="R278">
+        <v>10</v>
+      </c>
+      <c r="S278">
+        <v>10</v>
+      </c>
+      <c r="T278">
+        <v>10</v>
+      </c>
+      <c r="U278">
+        <v>14</v>
+      </c>
+      <c r="V278">
+        <v>3</v>
+      </c>
+      <c r="X278">
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <v>6</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>95</v>
       </c>
@@ -15274,8 +21635,56 @@
       <c r="E279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279">
+        <v>10</v>
+      </c>
+      <c r="G279">
+        <v>2</v>
+      </c>
+      <c r="H279">
+        <v>-5</v>
+      </c>
+      <c r="I279">
+        <v>-5</v>
+      </c>
+      <c r="J279">
+        <v>-6</v>
+      </c>
+      <c r="K279">
+        <v>-7</v>
+      </c>
+      <c r="L279">
+        <v>86</v>
+      </c>
+      <c r="M279">
+        <v>49</v>
+      </c>
+      <c r="N279">
+        <v>30</v>
+      </c>
+      <c r="O279">
+        <v>1030</v>
+      </c>
+      <c r="P279">
+        <v>1028</v>
+      </c>
+      <c r="Q279">
+        <v>1027</v>
+      </c>
+      <c r="U279">
+        <v>8</v>
+      </c>
+      <c r="V279">
+        <v>5</v>
+      </c>
+      <c r="X279">
+        <v>0</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>95</v>
       </c>
@@ -15291,8 +21700,68 @@
       <c r="E280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280">
+        <v>4</v>
+      </c>
+      <c r="G280">
+        <v>-2</v>
+      </c>
+      <c r="H280">
+        <v>-7</v>
+      </c>
+      <c r="I280">
+        <v>-5</v>
+      </c>
+      <c r="J280">
+        <v>-6</v>
+      </c>
+      <c r="K280">
+        <v>-9</v>
+      </c>
+      <c r="L280">
+        <v>86</v>
+      </c>
+      <c r="M280">
+        <v>65</v>
+      </c>
+      <c r="N280">
+        <v>52</v>
+      </c>
+      <c r="O280">
+        <v>1028</v>
+      </c>
+      <c r="P280">
+        <v>1025</v>
+      </c>
+      <c r="Q280">
+        <v>1022</v>
+      </c>
+      <c r="R280">
+        <v>10</v>
+      </c>
+      <c r="S280">
+        <v>10</v>
+      </c>
+      <c r="T280">
+        <v>10</v>
+      </c>
+      <c r="U280">
+        <v>8</v>
+      </c>
+      <c r="V280">
+        <v>2</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>6</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>95</v>
       </c>
@@ -15308,8 +21777,71 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281">
+        <v>3</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>100</v>
+      </c>
+      <c r="M281">
+        <v>99</v>
+      </c>
+      <c r="N281">
+        <v>93</v>
+      </c>
+      <c r="O281">
+        <v>1019</v>
+      </c>
+      <c r="P281">
+        <v>1018</v>
+      </c>
+      <c r="Q281">
+        <v>1016</v>
+      </c>
+      <c r="R281">
+        <v>6</v>
+      </c>
+      <c r="S281">
+        <v>2</v>
+      </c>
+      <c r="T281">
+        <v>1</v>
+      </c>
+      <c r="U281">
+        <v>14</v>
+      </c>
+      <c r="V281">
+        <v>8</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>8</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>95</v>
       </c>
@@ -15325,8 +21857,68 @@
       <c r="E282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282">
+        <v>10</v>
+      </c>
+      <c r="G282">
+        <v>8</v>
+      </c>
+      <c r="H282">
+        <v>7</v>
+      </c>
+      <c r="I282">
+        <v>-1</v>
+      </c>
+      <c r="J282">
+        <v>-2</v>
+      </c>
+      <c r="K282">
+        <v>-3</v>
+      </c>
+      <c r="L282">
+        <v>57</v>
+      </c>
+      <c r="M282">
+        <v>50</v>
+      </c>
+      <c r="N282">
+        <v>40</v>
+      </c>
+      <c r="O282">
+        <v>1020</v>
+      </c>
+      <c r="P282">
+        <v>1019</v>
+      </c>
+      <c r="Q282">
+        <v>1016</v>
+      </c>
+      <c r="R282">
+        <v>10</v>
+      </c>
+      <c r="S282">
+        <v>10</v>
+      </c>
+      <c r="T282">
+        <v>10</v>
+      </c>
+      <c r="U282">
+        <v>26</v>
+      </c>
+      <c r="V282">
+        <v>21</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>2</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>95</v>
       </c>
@@ -15342,8 +21934,71 @@
       <c r="E283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283">
+        <v>2</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>-1</v>
+      </c>
+      <c r="K283">
+        <v>-2</v>
+      </c>
+      <c r="L283">
+        <v>100</v>
+      </c>
+      <c r="M283">
+        <v>91</v>
+      </c>
+      <c r="N283">
+        <v>81</v>
+      </c>
+      <c r="O283">
+        <v>1023</v>
+      </c>
+      <c r="P283">
+        <v>1021</v>
+      </c>
+      <c r="Q283">
+        <v>1019</v>
+      </c>
+      <c r="R283">
+        <v>10</v>
+      </c>
+      <c r="S283">
+        <v>7</v>
+      </c>
+      <c r="T283">
+        <v>2</v>
+      </c>
+      <c r="U283">
+        <v>23</v>
+      </c>
+      <c r="V283">
+        <v>3</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>7</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>95</v>
       </c>
@@ -15359,8 +22014,71 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284">
+        <v>7</v>
+      </c>
+      <c r="G284">
+        <v>3</v>
+      </c>
+      <c r="H284">
+        <v>-1</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>-2</v>
+      </c>
+      <c r="K284">
+        <v>-5</v>
+      </c>
+      <c r="L284">
+        <v>100</v>
+      </c>
+      <c r="M284">
+        <v>74</v>
+      </c>
+      <c r="N284">
+        <v>43</v>
+      </c>
+      <c r="O284">
+        <v>1020</v>
+      </c>
+      <c r="P284">
+        <v>1017</v>
+      </c>
+      <c r="Q284">
+        <v>1013</v>
+      </c>
+      <c r="R284">
+        <v>10</v>
+      </c>
+      <c r="S284">
+        <v>9</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284">
+        <v>35</v>
+      </c>
+      <c r="V284">
+        <v>11</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>2</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>95</v>
       </c>
@@ -15376,8 +22094,68 @@
       <c r="E285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285">
+        <v>4</v>
+      </c>
+      <c r="G285">
+        <v>-1</v>
+      </c>
+      <c r="H285">
+        <v>-5</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>-3</v>
+      </c>
+      <c r="K285">
+        <v>-7</v>
+      </c>
+      <c r="L285">
+        <v>93</v>
+      </c>
+      <c r="M285">
+        <v>80</v>
+      </c>
+      <c r="N285">
+        <v>65</v>
+      </c>
+      <c r="O285">
+        <v>1026</v>
+      </c>
+      <c r="P285">
+        <v>1024</v>
+      </c>
+      <c r="Q285">
+        <v>1022</v>
+      </c>
+      <c r="R285">
+        <v>10</v>
+      </c>
+      <c r="S285">
+        <v>10</v>
+      </c>
+      <c r="T285">
+        <v>10</v>
+      </c>
+      <c r="U285">
+        <v>11</v>
+      </c>
+      <c r="V285">
+        <v>2</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>4</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15393,8 +22171,68 @@
       <c r="E286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286">
+        <v>14</v>
+      </c>
+      <c r="G286">
+        <v>7</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>4</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>100</v>
+      </c>
+      <c r="M286">
+        <v>71</v>
+      </c>
+      <c r="N286">
+        <v>41</v>
+      </c>
+      <c r="O286">
+        <v>1023</v>
+      </c>
+      <c r="P286">
+        <v>1022</v>
+      </c>
+      <c r="Q286">
+        <v>1021</v>
+      </c>
+      <c r="R286">
+        <v>10</v>
+      </c>
+      <c r="S286">
+        <v>8</v>
+      </c>
+      <c r="T286">
+        <v>2</v>
+      </c>
+      <c r="U286">
+        <v>35</v>
+      </c>
+      <c r="V286">
+        <v>8</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>5</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15410,8 +22248,68 @@
       <c r="E287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287">
+        <v>13</v>
+      </c>
+      <c r="G287">
+        <v>10</v>
+      </c>
+      <c r="H287">
+        <v>8</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>-1</v>
+      </c>
+      <c r="K287">
+        <v>-3</v>
+      </c>
+      <c r="L287">
+        <v>62</v>
+      </c>
+      <c r="M287">
+        <v>46</v>
+      </c>
+      <c r="N287">
+        <v>36</v>
+      </c>
+      <c r="O287">
+        <v>1020</v>
+      </c>
+      <c r="P287">
+        <v>1018</v>
+      </c>
+      <c r="Q287">
+        <v>1017</v>
+      </c>
+      <c r="R287">
+        <v>10</v>
+      </c>
+      <c r="S287">
+        <v>10</v>
+      </c>
+      <c r="T287">
+        <v>10</v>
+      </c>
+      <c r="U287">
+        <v>26</v>
+      </c>
+      <c r="V287">
+        <v>19</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>3</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15427,8 +22325,71 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288">
+        <v>10</v>
+      </c>
+      <c r="G288">
+        <v>4</v>
+      </c>
+      <c r="H288">
+        <v>-1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>-3</v>
+      </c>
+      <c r="K288">
+        <v>-5</v>
+      </c>
+      <c r="L288">
+        <v>86</v>
+      </c>
+      <c r="M288">
+        <v>60</v>
+      </c>
+      <c r="N288">
+        <v>35</v>
+      </c>
+      <c r="O288">
+        <v>1020</v>
+      </c>
+      <c r="P288">
+        <v>1019</v>
+      </c>
+      <c r="Q288">
+        <v>1017</v>
+      </c>
+      <c r="R288">
+        <v>10</v>
+      </c>
+      <c r="S288">
+        <v>9</v>
+      </c>
+      <c r="T288">
+        <v>6</v>
+      </c>
+      <c r="U288">
+        <v>23</v>
+      </c>
+      <c r="V288">
+        <v>10</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>3</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15444,8 +22405,68 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289">
+        <v>7</v>
+      </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
+      <c r="H289">
+        <v>-1</v>
+      </c>
+      <c r="I289">
+        <v>-4</v>
+      </c>
+      <c r="J289">
+        <v>-6</v>
+      </c>
+      <c r="K289">
+        <v>-12</v>
+      </c>
+      <c r="L289">
+        <v>75</v>
+      </c>
+      <c r="M289">
+        <v>52</v>
+      </c>
+      <c r="N289">
+        <v>25</v>
+      </c>
+      <c r="O289">
+        <v>1021</v>
+      </c>
+      <c r="P289">
+        <v>1019</v>
+      </c>
+      <c r="Q289">
+        <v>1018</v>
+      </c>
+      <c r="R289">
+        <v>10</v>
+      </c>
+      <c r="S289">
+        <v>10</v>
+      </c>
+      <c r="T289">
+        <v>10</v>
+      </c>
+      <c r="U289">
+        <v>19</v>
+      </c>
+      <c r="V289">
+        <v>6</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>1</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15461,8 +22482,68 @@
       <c r="E290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290">
+        <v>6</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>-4</v>
+      </c>
+      <c r="I290">
+        <v>-7</v>
+      </c>
+      <c r="J290">
+        <v>-11</v>
+      </c>
+      <c r="K290">
+        <v>-17</v>
+      </c>
+      <c r="L290">
+        <v>74</v>
+      </c>
+      <c r="M290">
+        <v>42</v>
+      </c>
+      <c r="N290">
+        <v>18</v>
+      </c>
+      <c r="O290">
+        <v>1019</v>
+      </c>
+      <c r="P290">
+        <v>1017</v>
+      </c>
+      <c r="Q290">
+        <v>1016</v>
+      </c>
+      <c r="R290">
+        <v>10</v>
+      </c>
+      <c r="S290">
+        <v>10</v>
+      </c>
+      <c r="T290">
+        <v>10</v>
+      </c>
+      <c r="U290">
+        <v>19</v>
+      </c>
+      <c r="V290">
+        <v>10</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>1</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15478,8 +22559,56 @@
       <c r="E291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291">
+        <v>6</v>
+      </c>
+      <c r="G291">
+        <v>-1</v>
+      </c>
+      <c r="H291">
+        <v>-8</v>
+      </c>
+      <c r="I291">
+        <v>-9</v>
+      </c>
+      <c r="J291">
+        <v>-13</v>
+      </c>
+      <c r="K291">
+        <v>-20</v>
+      </c>
+      <c r="L291">
+        <v>79</v>
+      </c>
+      <c r="M291">
+        <v>43</v>
+      </c>
+      <c r="N291">
+        <v>14</v>
+      </c>
+      <c r="O291">
+        <v>1024</v>
+      </c>
+      <c r="P291">
+        <v>1022</v>
+      </c>
+      <c r="Q291">
+        <v>1021</v>
+      </c>
+      <c r="U291">
+        <v>19</v>
+      </c>
+      <c r="V291">
+        <v>8</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15495,8 +22624,56 @@
       <c r="E292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292">
+        <v>10</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>-9</v>
+      </c>
+      <c r="I292">
+        <v>-7</v>
+      </c>
+      <c r="J292">
+        <v>-10</v>
+      </c>
+      <c r="K292">
+        <v>-15</v>
+      </c>
+      <c r="L292">
+        <v>86</v>
+      </c>
+      <c r="M292">
+        <v>45</v>
+      </c>
+      <c r="N292">
+        <v>16</v>
+      </c>
+      <c r="O292">
+        <v>1021</v>
+      </c>
+      <c r="P292">
+        <v>1019</v>
+      </c>
+      <c r="Q292">
+        <v>1017</v>
+      </c>
+      <c r="U292">
+        <v>11</v>
+      </c>
+      <c r="V292">
+        <v>5</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15512,8 +22689,68 @@
       <c r="E293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293">
+        <v>11</v>
+      </c>
+      <c r="G293">
+        <v>2</v>
+      </c>
+      <c r="H293">
+        <v>-7</v>
+      </c>
+      <c r="I293">
+        <v>-6</v>
+      </c>
+      <c r="J293">
+        <v>-8</v>
+      </c>
+      <c r="K293">
+        <v>-11</v>
+      </c>
+      <c r="L293">
+        <v>74</v>
+      </c>
+      <c r="M293">
+        <v>48</v>
+      </c>
+      <c r="N293">
+        <v>28</v>
+      </c>
+      <c r="O293">
+        <v>1019</v>
+      </c>
+      <c r="P293">
+        <v>1017</v>
+      </c>
+      <c r="Q293">
+        <v>1015</v>
+      </c>
+      <c r="R293">
+        <v>10</v>
+      </c>
+      <c r="S293">
+        <v>10</v>
+      </c>
+      <c r="T293">
+        <v>10</v>
+      </c>
+      <c r="U293">
+        <v>14</v>
+      </c>
+      <c r="V293">
+        <v>3</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>1</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15529,8 +22766,68 @@
       <c r="E294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294">
+        <v>10</v>
+      </c>
+      <c r="G294">
+        <v>3</v>
+      </c>
+      <c r="H294">
+        <v>-4</v>
+      </c>
+      <c r="I294">
+        <v>-3</v>
+      </c>
+      <c r="J294">
+        <v>-4</v>
+      </c>
+      <c r="K294">
+        <v>-7</v>
+      </c>
+      <c r="L294">
+        <v>86</v>
+      </c>
+      <c r="M294">
+        <v>56</v>
+      </c>
+      <c r="N294">
+        <v>37</v>
+      </c>
+      <c r="O294">
+        <v>1018</v>
+      </c>
+      <c r="P294">
+        <v>1016</v>
+      </c>
+      <c r="Q294">
+        <v>1016</v>
+      </c>
+      <c r="R294">
+        <v>10</v>
+      </c>
+      <c r="S294">
+        <v>10</v>
+      </c>
+      <c r="T294">
+        <v>10</v>
+      </c>
+      <c r="U294">
+        <v>19</v>
+      </c>
+      <c r="V294">
+        <v>5</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>2</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15546,8 +22843,68 @@
       <c r="E295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295">
+        <v>11</v>
+      </c>
+      <c r="G295">
+        <v>4</v>
+      </c>
+      <c r="H295">
+        <v>-1</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>-3</v>
+      </c>
+      <c r="K295">
+        <v>-8</v>
+      </c>
+      <c r="L295">
+        <v>100</v>
+      </c>
+      <c r="M295">
+        <v>60</v>
+      </c>
+      <c r="N295">
+        <v>28</v>
+      </c>
+      <c r="O295">
+        <v>1021</v>
+      </c>
+      <c r="P295">
+        <v>1020</v>
+      </c>
+      <c r="Q295">
+        <v>1019</v>
+      </c>
+      <c r="R295">
+        <v>10</v>
+      </c>
+      <c r="S295">
+        <v>10</v>
+      </c>
+      <c r="T295">
+        <v>10</v>
+      </c>
+      <c r="U295">
+        <v>23</v>
+      </c>
+      <c r="V295">
+        <v>10</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>3</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15563,8 +22920,68 @@
       <c r="E296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296">
+        <v>10</v>
+      </c>
+      <c r="G296">
+        <v>2</v>
+      </c>
+      <c r="H296">
+        <v>-5</v>
+      </c>
+      <c r="I296">
+        <v>-5</v>
+      </c>
+      <c r="J296">
+        <v>-8</v>
+      </c>
+      <c r="K296">
+        <v>-14</v>
+      </c>
+      <c r="L296">
+        <v>86</v>
+      </c>
+      <c r="M296">
+        <v>50</v>
+      </c>
+      <c r="N296">
+        <v>17</v>
+      </c>
+      <c r="O296">
+        <v>1025</v>
+      </c>
+      <c r="P296">
+        <v>1023</v>
+      </c>
+      <c r="Q296">
+        <v>1022</v>
+      </c>
+      <c r="R296">
+        <v>10</v>
+      </c>
+      <c r="S296">
+        <v>10</v>
+      </c>
+      <c r="T296">
+        <v>10</v>
+      </c>
+      <c r="U296">
+        <v>8</v>
+      </c>
+      <c r="V296">
+        <v>5</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>3</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15580,8 +22997,56 @@
       <c r="E297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297">
+        <v>8</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>-7</v>
+      </c>
+      <c r="I297">
+        <v>-7</v>
+      </c>
+      <c r="J297">
+        <v>-10</v>
+      </c>
+      <c r="K297">
+        <v>-11</v>
+      </c>
+      <c r="L297">
+        <v>86</v>
+      </c>
+      <c r="M297">
+        <v>46</v>
+      </c>
+      <c r="N297">
+        <v>25</v>
+      </c>
+      <c r="O297">
+        <v>1022</v>
+      </c>
+      <c r="P297">
+        <v>1020</v>
+      </c>
+      <c r="Q297">
+        <v>1017</v>
+      </c>
+      <c r="U297">
+        <v>8</v>
+      </c>
+      <c r="V297">
+        <v>3</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15597,8 +23062,68 @@
       <c r="E298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298">
+        <v>8</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>-8</v>
+      </c>
+      <c r="I298">
+        <v>-8</v>
+      </c>
+      <c r="J298">
+        <v>-12</v>
+      </c>
+      <c r="K298">
+        <v>-16</v>
+      </c>
+      <c r="L298">
+        <v>86</v>
+      </c>
+      <c r="M298">
+        <v>42</v>
+      </c>
+      <c r="N298">
+        <v>18</v>
+      </c>
+      <c r="O298">
+        <v>1012</v>
+      </c>
+      <c r="P298">
+        <v>1010</v>
+      </c>
+      <c r="Q298">
+        <v>1008</v>
+      </c>
+      <c r="R298">
+        <v>10</v>
+      </c>
+      <c r="S298">
+        <v>10</v>
+      </c>
+      <c r="T298">
+        <v>10</v>
+      </c>
+      <c r="U298">
+        <v>19</v>
+      </c>
+      <c r="V298">
+        <v>3</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>1</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15614,8 +23139,71 @@
       <c r="E299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299">
+        <v>2</v>
+      </c>
+      <c r="G299">
+        <v>-3</v>
+      </c>
+      <c r="H299">
+        <v>-8</v>
+      </c>
+      <c r="I299">
+        <v>-5</v>
+      </c>
+      <c r="J299">
+        <v>-7</v>
+      </c>
+      <c r="K299">
+        <v>-10</v>
+      </c>
+      <c r="L299">
+        <v>93</v>
+      </c>
+      <c r="M299">
+        <v>66</v>
+      </c>
+      <c r="N299">
+        <v>44</v>
+      </c>
+      <c r="O299">
+        <v>1017</v>
+      </c>
+      <c r="P299">
+        <v>1016</v>
+      </c>
+      <c r="Q299">
+        <v>1014</v>
+      </c>
+      <c r="R299">
+        <v>10</v>
+      </c>
+      <c r="S299">
+        <v>9</v>
+      </c>
+      <c r="T299">
+        <v>4</v>
+      </c>
+      <c r="U299">
+        <v>11</v>
+      </c>
+      <c r="V299">
+        <v>5</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>2</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15631,8 +23219,68 @@
       <c r="E300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300">
+        <v>2</v>
+      </c>
+      <c r="G300">
+        <v>-3</v>
+      </c>
+      <c r="H300">
+        <v>-7</v>
+      </c>
+      <c r="I300">
+        <v>-5</v>
+      </c>
+      <c r="J300">
+        <v>-6</v>
+      </c>
+      <c r="K300">
+        <v>-8</v>
+      </c>
+      <c r="L300">
+        <v>93</v>
+      </c>
+      <c r="M300">
+        <v>73</v>
+      </c>
+      <c r="N300">
+        <v>60</v>
+      </c>
+      <c r="O300">
+        <v>1018</v>
+      </c>
+      <c r="P300">
+        <v>1017</v>
+      </c>
+      <c r="Q300">
+        <v>1016</v>
+      </c>
+      <c r="R300">
+        <v>10</v>
+      </c>
+      <c r="S300">
+        <v>10</v>
+      </c>
+      <c r="T300">
+        <v>10</v>
+      </c>
+      <c r="U300">
+        <v>8</v>
+      </c>
+      <c r="V300">
+        <v>2</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>8</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15648,8 +23296,68 @@
       <c r="E301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="F301">
+        <v>6</v>
+      </c>
+      <c r="G301">
+        <v>2</v>
+      </c>
+      <c r="H301">
+        <v>-2</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>-2</v>
+      </c>
+      <c r="K301">
+        <v>-4</v>
+      </c>
+      <c r="L301">
+        <v>100</v>
+      </c>
+      <c r="M301">
+        <v>72</v>
+      </c>
+      <c r="N301">
+        <v>49</v>
+      </c>
+      <c r="O301">
+        <v>1021</v>
+      </c>
+      <c r="P301">
+        <v>1020</v>
+      </c>
+      <c r="Q301">
+        <v>1019</v>
+      </c>
+      <c r="R301">
+        <v>10</v>
+      </c>
+      <c r="S301">
+        <v>8</v>
+      </c>
+      <c r="T301">
+        <v>3</v>
+      </c>
+      <c r="U301">
+        <v>14</v>
+      </c>
+      <c r="V301">
+        <v>6</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>5</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15665,8 +23373,56 @@
       <c r="E302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="F302">
+        <v>8</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>-5</v>
+      </c>
+      <c r="I302">
+        <v>-2</v>
+      </c>
+      <c r="J302">
+        <v>-4</v>
+      </c>
+      <c r="K302">
+        <v>-7</v>
+      </c>
+      <c r="L302">
+        <v>93</v>
+      </c>
+      <c r="M302">
+        <v>64</v>
+      </c>
+      <c r="N302">
+        <v>40</v>
+      </c>
+      <c r="O302">
+        <v>1024</v>
+      </c>
+      <c r="P302">
+        <v>1022</v>
+      </c>
+      <c r="Q302">
+        <v>1021</v>
+      </c>
+      <c r="U302">
+        <v>11</v>
+      </c>
+      <c r="V302">
+        <v>6</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15682,8 +23438,56 @@
       <c r="E303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="F303">
+        <v>8</v>
+      </c>
+      <c r="G303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>-6</v>
+      </c>
+      <c r="I303">
+        <v>-3</v>
+      </c>
+      <c r="J303">
+        <v>-5</v>
+      </c>
+      <c r="K303">
+        <v>-7</v>
+      </c>
+      <c r="L303">
+        <v>93</v>
+      </c>
+      <c r="M303">
+        <v>62</v>
+      </c>
+      <c r="N303">
+        <v>34</v>
+      </c>
+      <c r="O303">
+        <v>1023</v>
+      </c>
+      <c r="P303">
+        <v>1021</v>
+      </c>
+      <c r="Q303">
+        <v>1020</v>
+      </c>
+      <c r="U303">
+        <v>8</v>
+      </c>
+      <c r="V303">
+        <v>2</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15699,8 +23503,56 @@
       <c r="E304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="F304">
+        <v>10</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>-7</v>
+      </c>
+      <c r="I304">
+        <v>-4</v>
+      </c>
+      <c r="J304">
+        <v>-7</v>
+      </c>
+      <c r="K304">
+        <v>-11</v>
+      </c>
+      <c r="L304">
+        <v>86</v>
+      </c>
+      <c r="M304">
+        <v>53</v>
+      </c>
+      <c r="N304">
+        <v>24</v>
+      </c>
+      <c r="O304">
+        <v>1022</v>
+      </c>
+      <c r="P304">
+        <v>1020</v>
+      </c>
+      <c r="Q304">
+        <v>1018</v>
+      </c>
+      <c r="U304">
+        <v>11</v>
+      </c>
+      <c r="V304">
+        <v>3</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15716,8 +23568,68 @@
       <c r="E305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305">
+        <v>8</v>
+      </c>
+      <c r="G305">
+        <v>3</v>
+      </c>
+      <c r="H305">
+        <v>-2</v>
+      </c>
+      <c r="I305">
+        <v>-3</v>
+      </c>
+      <c r="J305">
+        <v>-5</v>
+      </c>
+      <c r="K305">
+        <v>-7</v>
+      </c>
+      <c r="L305">
+        <v>80</v>
+      </c>
+      <c r="M305">
+        <v>53</v>
+      </c>
+      <c r="N305">
+        <v>34</v>
+      </c>
+      <c r="O305">
+        <v>1021</v>
+      </c>
+      <c r="P305">
+        <v>1020</v>
+      </c>
+      <c r="Q305">
+        <v>1017</v>
+      </c>
+      <c r="R305">
+        <v>10</v>
+      </c>
+      <c r="S305">
+        <v>10</v>
+      </c>
+      <c r="T305">
+        <v>10</v>
+      </c>
+      <c r="U305">
+        <v>8</v>
+      </c>
+      <c r="V305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>4</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15733,8 +23645,68 @@
       <c r="E306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306">
+        <v>7</v>
+      </c>
+      <c r="G306">
+        <v>3</v>
+      </c>
+      <c r="H306">
+        <v>-1</v>
+      </c>
+      <c r="I306">
+        <v>-2</v>
+      </c>
+      <c r="J306">
+        <v>-4</v>
+      </c>
+      <c r="K306">
+        <v>-7</v>
+      </c>
+      <c r="L306">
+        <v>86</v>
+      </c>
+      <c r="M306">
+        <v>62</v>
+      </c>
+      <c r="N306">
+        <v>37</v>
+      </c>
+      <c r="O306">
+        <v>1018</v>
+      </c>
+      <c r="P306">
+        <v>1016</v>
+      </c>
+      <c r="Q306">
+        <v>1015</v>
+      </c>
+      <c r="R306">
+        <v>10</v>
+      </c>
+      <c r="S306">
+        <v>10</v>
+      </c>
+      <c r="T306">
+        <v>10</v>
+      </c>
+      <c r="U306">
+        <v>19</v>
+      </c>
+      <c r="V306">
+        <v>5</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>5</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15750,8 +23722,68 @@
       <c r="E307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307">
+        <v>7</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>-6</v>
+      </c>
+      <c r="I307">
+        <v>-3</v>
+      </c>
+      <c r="J307">
+        <v>-8</v>
+      </c>
+      <c r="K307">
+        <v>-11</v>
+      </c>
+      <c r="L307">
+        <v>93</v>
+      </c>
+      <c r="M307">
+        <v>54</v>
+      </c>
+      <c r="N307">
+        <v>29</v>
+      </c>
+      <c r="O307">
+        <v>1017</v>
+      </c>
+      <c r="P307">
+        <v>1016</v>
+      </c>
+      <c r="Q307">
+        <v>1014</v>
+      </c>
+      <c r="R307">
+        <v>10</v>
+      </c>
+      <c r="S307">
+        <v>10</v>
+      </c>
+      <c r="T307">
+        <v>10</v>
+      </c>
+      <c r="U307">
+        <v>19</v>
+      </c>
+      <c r="V307">
+        <v>6</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>3</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15767,8 +23799,68 @@
       <c r="E308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="F308">
+        <v>3</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>-2</v>
+      </c>
+      <c r="I308">
+        <v>-4</v>
+      </c>
+      <c r="J308">
+        <v>-6</v>
+      </c>
+      <c r="K308">
+        <v>-8</v>
+      </c>
+      <c r="L308">
+        <v>86</v>
+      </c>
+      <c r="M308">
+        <v>65</v>
+      </c>
+      <c r="N308">
+        <v>45</v>
+      </c>
+      <c r="O308">
+        <v>1023</v>
+      </c>
+      <c r="P308">
+        <v>1022</v>
+      </c>
+      <c r="Q308">
+        <v>1021</v>
+      </c>
+      <c r="R308">
+        <v>10</v>
+      </c>
+      <c r="S308">
+        <v>9</v>
+      </c>
+      <c r="T308">
+        <v>5</v>
+      </c>
+      <c r="U308">
+        <v>8</v>
+      </c>
+      <c r="V308">
+        <v>2</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>6</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15785,7 +23877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15802,7 +23894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15819,7 +23911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15836,7 +23928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15853,7 +23945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15870,7 +23962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15887,7 +23979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15904,7 +23996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15921,7 +24013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15938,7 +24030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15955,7 +24047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>95</v>
       </c>
@@ -16765,7 +24857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16777,7 +24869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
